--- a/POS INDONESIA SENTIMEN.xlsx
+++ b/POS INDONESIA SENTIMEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ayo jawab siapa yg baru tau kalau pos indonesia punya ewallet bernama pospayofficial utk mendukung langkah bumn utk negeri install dan aktivasi pospay dr skrg yuk banyak bonus yg akan didapat dan jg bentuk dr aksi nyata kita dukung karya hebat bumn</t>
+          <t>pos indonesia menaikkan tarif pengantaran barang kiriman impor terhitung sejak september hal itu dikarenakan terdapat perubahan permenkeu tentang ketentuan kepabeanan cukai dan pajak atas impor barang kiriman</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>oktober memperingati hari kesaktian pancasila bersama pospayofficial keren sih tagline nya selalu tangguh di mana saja sbg informasi pospay adalah ewallet keluaran bumn pos indonesia</t>
+          <t>kehadiran pospay dari pt pos indonesia semakin meluas di tengah masyarakat indonesia per awal november ini setidaknya terdapat lebih dari juta masyarakat telah mengunduh aplikasi pospay di gawai masingmasing jokowi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>alasan sederhana mau coba download pospayofficial adl dalam rangka mendukung karya bumn aplikasi ini layak diapresiasi sbg salah satu ikhtiar pos indonesia utk negeri</t>
+          <t>open jasa admin packing dom depok jabar deket ekspedisi jnt jne pos indonesia shopee express wahana shopee freeong sudah biasa packing krn collector jg bahan packing bisa dari kami sendiri jg bs harga bisa dibicarakan di dm yuk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tercatat sampai dengan semester i pertumbuhan bisnis pt pos indonesia mencapai dibandingkan dengan tahun lalusemua ini berkat kehadiran platform digital pakaipospay tiorichardo airinairinnz andreopasumual warhasnotendyet kontannews</t>
+          <t>bayar pajak motor mudah bgt isi kelengkapantransfer via mbanking terus tunggu dianter via pos indonesianama aplikasi signalpolri</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>digitalisasi di tubuh pt pos indonesia diwujudkan dengan diluncurkannya dua aplikasi produk layanan untuk semakin memudahkan pelanggan salah satunya adalah pospay tiorichardo ninjacirng iecstyling carlaindriana</t>
+          <t>momentum november bukan hanya sebatas peringatan pemuda harus mengambil peran untuk meneruskan apa yang sudah diperjuangkan oleh para pendahulu bangsa ini gerak nyata oleh pc gp ansor kabupaten probolinggo bersama pt pos indonesia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>selamat hari pos duniapt pos indonesia yang sejak dulu jadi andalan kini mulai bertransformasi ke digital dengan diluncurkannya pospay abdurrahmn atikah iramagl naydonuts</t>
+          <t>kangdede aniesbaswedan kngmng jenglastri niaratmadja riatumimomor ffauzi kingofoloan astyhaneyfanany finatams msaiddidu itu bukan air kiriman tapi air weselan colek posindo jangan di wesel dulu ya</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gerceeep bayar bimbel online skrg gak perlu ribet aplikasi pospayofficial sudah punya fitur utk pembayaran tsb makin lengkap yaaa aplikasi bumn pos indonesia</t>
+          <t>berita singkat bumn bank mandiri pos indonesia pln inti timah sucofindo itdc pelindo jasa tirta ii gmf aeroasia bankmandiri posindonesia plnid ptintiofficial officialtimah sucofindo itdcid indonesiaport jasatirta gmfaeroasia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>udah tau belum gaes kalo pos indonesia punya produk dompet digital baru namanya pospayofficial ternyata pospay ini lagi ada promo download dan aktivasi dapet bonustop up juga dapet bonusyuk dukung bumn untuk maju cc leonitalestari billray triwul anaklolina</t>
+          <t>nextarchocodel thatsmyexcuse pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia dokumen paling bener kirimnya pakai lionparcel ada harga khusus untuk kirim dokumen ke seluruh indonesia aman lagi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pospay punya cerita download aplikasinya dan dapatkan bonus topup dapet bonus lagibumn pak jokowi semakin berkembang ayo maju terus pos indonesia nakula leonitalestari yradianto anakkolong rismaliez billray kangdede ferdinandhaean</t>
+          <t>kirim ke bandara aja apa biar cepet nyampe pizzahutid pizzahut japan flyanaofficial jalofficialjp airasiaindo airasiagoid pake apa posindonesia posindonesia biar murah kbritokyo japanfoundation kemana nitip aja</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>keunggulan pos indonesia yang sulit ditandingi adalah jangkauannya yang hingga ke pelosok dan besar armadanya melengkapi kelebihan itu kini tersedia pos aja aplikasi digital yang memungkinkan anda mendapat pelayanan urusan paket dari rumah bukan begitu min psaja</t>
+          <t>pt pos indonesia persero meluncurkan layanan terbaru mypos kamis layanan ini hadir untuk menggarap pangsa pasar bisnis kurir dan logistik bagi kalangan milenial jokowi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>update dari nitarose attention semua sobatumkmpos indonesia sekarang akan cek barang kategori makanan yg akan dikirim satu persatu jika tidak ada label komposisi bahan terbuat dari tidak diijinkan dikirim tujuan australi sekilas info smoga manfaat</t>
+          <t>acecourtbot miawabu einschwert rizaliben napikapohan lasalosh lucknudz shtthefakupp areajulid jawabannya pos indonesia guys</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tahukah kamu pos indonesia punya aplikasi digital keren namanya pospay menjadi mudah ketika pakaipospay dalam segala urusan transfer udah nyoba blm hayo dukung bumn untuk terus maju leonitalestari widyarenee rizmaya billray aryprasetyo arjunoireng</t>
+          <t>berita singkat bumn kbn pln inti pos indonesia indonesiare rekind surveyor indonesia kai inalum plnid ptintiofficial indonesiare rekindofficial surveyorid kai keretaapikita inalumofficial</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>menteri bumn erick thohir didampingi direksi dan komisaris pos indonesia mencoba secara langsung beberapa layanan digital pos indonesia di kantor pos bogor</t>
+          <t>penurunan tarif ekspedisi menjadi simpul penting dalam pemerataan pendidikan sampai ke indonesia timur cc posindonesia jneid</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>possejak kecil kita biasa mendengar suara pak pos menaiki sepeda motor saat ini pos indonesia berbenah tak mau dimakan zaman ada layanan pembayaran digital namany pospay layanan ini sangat mudah lhokamu udah instal pospay uki enylove cintada leonitalestari</t>
+          <t>pt pos indonesia persero menaikkan tarif pengantaran barang kiriman impor terhitung sejak september ini daftarnya</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pos indonesia berevolusi dengan adanya pos aja aplikasi kirim paket tanpa harus capai keluar rumahngirim paket paketnya dijemput ada fitur tracking keren euy pos indonesia adityabima airinairinnz chicohakim joinkalbar arjunoireng</t>
+          <t>blessedbyfuture shouuch txtdarionlshop aku pernah beli buku di toko buku online eropa bukuny dari inggris nyampe minggu di semarang yg meneruskan ekspedisi ke indonesia itu pos indonesia atau ekspedisi yg bekerja sama</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nakula leonsr dusapanlandu vitaavp agusvino veelaarhie veraagustian karinaveni vaksinyuk veryantony ghaussadaii utk pengiriman online jk ada pilihan pos sy pilih pos benar cepat pos indonesia harus bisa bersaing</t>
+          <t>ditjenpajakri posindonesia pajakblampungpajakkuatindonesiamajupajakkitauntukkita</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pt pos indonesia wewujudkan digitalitasi dengan meluncurkan aplikasi produk layanan guna semakin memudahkan pelanggan salah satunya adalah pospay nezarpatria cakbambangelf kangdede airinairinnz ariandiputra</t>
+          <t>rahmmaun thatsmyexcuse pinkindust jeeeravo txtdarionlshop jntexpressid posindonesia terharu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>udh kenalan sama pos aja blm wankawan install yuk di smartphone mu pos indonesia lakukan akselerasi dg mengembangkan aplikasi di dunia digital bumn ini makin keren ya</t>
+          <t>rahmmaun thatsmyexcuse pinkindust jeeeravo txtdarionlshop jntexpressid posindonesia ternyata aku baru tau karna aku taunya pos itu lama</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ada new platform layanan digital kurir dan jasa keuangan dari posindo yaitu posaja dan pospay disamping buat pengiriman wesel pospay jg bisa buat bayar bermacam tagihan transaksi qris dan trasnfer dana rekening giro kerenpakaipospay</t>
+          <t>thatsmyexcuse pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia fyi pos indonesia sekarang buka juga sabtu minggu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pt pos indonesia terus mencari cara untuk bertahan di tengah gempuran yang kian modern salah satunya menjadikan pos bloc di gedung filateli sebagai tempat kongko yang sarat sejarah seni budaya dan promosi produk lokal indonesia cnnindonesia</t>
+          <t>thatsmyexcuse pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia pengalaman ngumpulin berkas skripsi buat yudisium pakai pos estimasi katanya hari ndak taunya ngirim pagi eh siangnya udah nyampe</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>wah pt pos indonesia mengeluarkan aplikasi pospay pospayofficial banyak banget bonusnyajgn install dan aktifkan aplikasinya nih buat yg bisnis online lumayan achietmokoginta</t>
+          <t>perlu perhatian para kurirdriver gojekindonesia grabid anterajaid jntexpressid jneid sicepatekspres posindonesia dll</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -876,17 +876,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ada yg pernah ngalamin pakai wesel nya pt pos indonesia kl sekarang dah jadi wesel instan yg bernama pospay dan lbh banyak fungsi bisa jd alat pembayaran lho pospayofficial bisa membuat kalian bayarin aku ticket kereta</t>
+          <t>pt pos indonesia terus berinovasikehadiran pospay dari pt pos indonesia semakin meluas ke tengah masyarakat per awal november ini setidaknya terdapat lebih dari juta masyarakat telah mengunduh aplikasi pospay jokowi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masih penasaran pospay dari salah satu bumn pt pos indonesia untuk pembayaran apa saja yang masih bingung yuks silakan cek link di bawah ini pnjljhid nakula bgkyjr kokokdirgantoro</t>
+          <t>rzam dedeafried bontotbanten momsofchildren frygian monstones sbelah mandiri mah gdung pos indonesia</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pos indonesia ini makin bagus ya sekarang ini baru keluarin dompet digital pospayofficial maju terus bumn indonesia budimandjatmiko abirekso</t>
+          <t>napikapohan einschwert lasalosh lucknudz shtthefakupp sadboideluxe areajulid pos indonesia yah gann</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mau bonus bertubitubiada pospay ewallet dari pos indonesiainstall dan aktivasi pospay lalu dapatkan bonus saldo ribu pulsa ribu isi ulang minimal ribu bonus lagi pulsa ribupospay</t>
+          <t>napikapohan einschwert lasalosh lucknudz shtthefakupp sadboideluxe areajulid ya intinya itu lah cari aja di google banyak kok kurir pos indonesia yang pake jaket orange wkwkwk</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ada yang punya kenangan kirim surat buat orang tercinta lewat pospospay mengucapkan selamat hari pos se dunia semoga pos indonesia yang sejak saya kecil jadi andalan ke depan makin berkembang dan profesional pospay produk pos indonesia untuk memudahkan transaksi kita</t>
+          <t>pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia mjb pos indonesia terbaik sih soal kirim dokumen udh brp kali kirim dokumen dr sini di manado ke jakarta padahal cuma pakai layanan reguler tapi hari sampai bisa pilih yg ekspres jg hari sampai</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>cara mudah aktifin pospay nya pt pos indonesia ternyata lebih mudah drpada nyopot tali bh pasangannya kl kata mas kae nurut km piye om ninjacirng paltiwest pnjljhid kabuuur</t>
+          <t>pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia pos cepet reguler bisa hari sampe tapi sabtu minggu kayanya pengiriman libur jadi kalo drop paket hari jumat jgn nunggu sabtuminggu bakal sampe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>yogapras uki enylove cintada leonitalestari widyarenee nakula tolakbigotnkri paltiwest arianarosaline hendman kangmul bansercybernu mantap pos indonesiadg pospay makin memudahkan</t>
+          <t>pinkindust jeeeravo afianinana txtdarionlshop jntexpressid posindonesia pos sekarang udah lumayan cepet menurutku sih ga kayak dulu yang lemot abis trs pilihannya juga ada mau yang berapa hari gitu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pos indonesia menyediakan jasa kiriman yang cepat tidak merepotkan simpel dan ditawarkan dengan harga terjangkau kita cukup memesan kurir lewat handphone dan tidak usah pergi ke manapengen pengiriman mudah murah cepat dan aman pakai pos aja</t>
+          <t>iya sip tar aku kirim nya ke alamat corner coffeebeanindo aja yahhh belum tau kapan nya masih sakit gigi udah harian tar dikabarin lagi uang nya anterin langsung tapi ke subang minta sejutaan transtvcorp jneid telkomindonesia posindo kotasubang</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>kemarin saya meresmikan ruang kreatif publik di pos bloc jakarta pusat pos blocialah hasil kolaborasi antara pt pos indonesia persero melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>pos indonesia terbitkan kartu pos dan perangko khusus world superbike di mandalika posindonesia kemenbumn kemenporari kemenparekraf itdcid pertamina</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ariandiputra pospayofficial ccchen atmipaula dinihrdianti dianafithras ferdinandhaean widyarenee babyalien akuntatty ngkongroses mantap pos indonesia nih</t>
+          <t>burnflovver ldvheise smilemamas xaesthetyc tubirfess of course ada yg bilang kantor pos cuma untuk kirim barang disana juga bisa pelayanan pembayaran pbb amp financial lainnya dan perlu di catet ga semua seller mereka shipping dg exp swasta lihat toko apa dulu amp area nya dimana di pati pun olshop pot masi kirim via pos indonesia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>estersusiani pospayofficial yogapras guruseva pakarintelek paltiwest pnjljhid suaramuda pujieminoritas pretiwn inibudi pos indonesia gak boleh kalah dengan perusahaan swasta</t>
+          <t>erickthohir posindonesia pak saya kan sdh bayar bea masuk barang dari luar negeri bayarnya lewat virtual account kantor pos tapi pas nerima barang kok saya ditagih lagi biaya tersebut oleh pihak pos nya</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>buat yg mau besedekah bingung lewat mana ternyata ya pospay nya pos indonesia pospayofficial bisa lho dan lebih jelas plus transparan pastinya</t>
+          <t>jeeeravo afianinana txtdarionlshop jntexpressid posindonesia baru tau nih klo dokumen lebih aman pke pos klo estimasi hari sampenya gimana ya termasuk cepat atau lama</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mau top up pulsa buat video call dengan pacar atau keluarga lebih mudah dan murah pakai pospay aja pospay aplikasi ewallet milik pos indonesia yang dibuat untuk memudahkan masyarakat melakukan transaksi keuanganudah gitu dengan install pospay dapat hadiahnya berkali</t>
+          <t>jeeeravo afianinana txtdarionlshop jntexpressid posindonesia bener banget kirim dokumen aman pakai posindonesia ada juga fitur one day service pernah kirim paket dokumen ijazab dari kudus ke jogja gak sampai jam</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>menteri bumn erick tohir buktikan aplikasi pos aja bener secepat kilat menggunakan pos aja cepat nya bikin kaget instan plus erickthohir apresiasi pos indonesia atas inovasi nya pengen kirim paket dengan cepat dan aman pakai pos aja</t>
+          <t>jeeeravo afianinana txtdarionlshop jntexpressid posindonesia kantorku tiap hari kirim dokumen pake pandu logistic aman dan tentram atau bisa pake tiki</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>selain pospayofficial pos indonesia juga punya aplikasi posaja untuk kelen yang mau kirimkirim paket ga pake ribet ya</t>
+          <t>sayadist fdrmdn anterajaid sicepatekspres posindonesia mari kita kembangkan bumn kita</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1176,17 +1176,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>selamat hari pos duniadan selamat buat pt pos indonesia yg terus bertransormasi ke arah digitalisasi pospayofficial pospay dan bumn yg terus berbenah menjadi lebih baik untukindonesialebihbaik</t>
+          <t>bgm prof rhenaldkasali posindonesia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nakula estersusiani ennyendah andriattitude ernithea erniembeeer riurizkiutomo raymax justbob adisareang wah punya pt pos indonesia ya</t>
+          <t>bumn pt pos indonesia melalui kantor pos jambi membuka lowongan kerja bagi lulusan s semua jurusan bagi yang berminat simak ketentuannya di sini ya</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ariandiputra bgkyjr bgkyrborn mastbp liaisti ellykoro mamakeabien widyarenee dinihrdianti hemaviton moga pelayanannya jg lbh hebat lg yajgn sampe pos indonesia masuk bottom worst lgpengalaman plus tukang sortir ga suka robek perangko lg kan pengalamanlagi</t>
+          <t>hallo bcsoetta paket saya ini sudah ada dimana ya saya tanya ke posindonesia katanya pihak pos belum menerima paketnya padahal dari tanggal paket ini sudah sampai di indonesia tolong ditanggapi yaa terima kasih</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1236,17 +1236,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fajarnugros andiana kantor pusat pt pos indonesia masih di bandung persisnya di jl banda demikian juga kantor pusat pt telkom berada di jl japati bandung</t>
+          <t>so disappointed with posindo on how they manage my ems shipment i asked for a refund since the package never fly beyond indo but they dont want to give full refund even though its their fault</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>juniblack banpolpecatan chueng eugenesungi laztinsmile ainaalit dyananjani candraasmara aryprasetyo anaksngkong wah keren pos indonesia makin maju</t>
+          <t>lowongan staff bumn pt pos indonesia persero update november terbuka untuk semua jurusan fresh graduateberpengalaman syarat lokasi amp cara melamar baca di</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bro n sist kenalin nih ada aplikasi bayar baru milik bumn tepatnya milik pos indonesiainstall aplikasi pospay sekarang dapat bonus saldo pulsa isi ulang bonus lagi pulsa waaah keren dijamin aman dan untung berkaliyuk buruan install</t>
+          <t>afianinana txtdarionlshop jntexpressid dokumen emang paling bener pake posindonesia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mau maketin pakai pos aja mau bayar tagihan pakaipospay lha kok enak yabumn pos indonesia membuat aplikasi yang sangat berguna makasih pos indonesia uki biroelangitkoe rinjanijb leonitalestari yradianto</t>
+          <t>afianinana txtdarionlshop jntexpressid knp kaga pake posindonesia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>wiiihh pos indonesia ada aplikasi super bagus namanya pospayofficial udah nyobain beluminstall dan aktivasi pospay sekarang dapat bonus saldo ribu pulsa ribu isi ulang minimal ribu bonus lagi pulsa ribugaspol bumn indonesiacc mulanbilqis</t>
+          <t>bluerainbowcake cc posindonesia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ciri suami yang baik sudah komplit ada pada diriku bumn sudah bikin aplikasi ewallet lewat pos indonesia ini bukti bakti pos indonesia untuk masyarakatpospay akan memudahkan kita bertransaksi jadi ayo buruan install pospay biar merasakan manfaat dan dapat bonus nya</t>
+          <t>gondronkkkk txtdarionlshop jntexpressid posindonesia alesannya karna kantor pos deket rumah saya itu lumayan jauh mas kalo deket juga gak akan pake itu</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1356,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gaes sudah tahu belum klo pt pos indonesia mengeluarkan aplikasi ewallet pospayternyata banyak bonusnya aktivasi pertama dpt pulsa rpksaldo rpk saya langsung install dan saldo langsung terisi rpmantaap pospay pospayofficial</t>
+          <t>lulabywithme bebo yashikamikaze tubirfess curiga oknum pos indonesia sih karena area ku pos indo tuh sepi bgt parahh jadi mungkin nilep</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ingin bonus saldo dan pulsa masing install pospaypospay aplikasi ewallet milik pos indonesia yang dibuat untuk memudahkan transaksi kita mau beli apapun bayarnya bisa lewat pospayselain banyak manfaatnya pospay banyak hadiah bonusnyaburuan install pospay</t>
+          <t>mnungs thedufresne posindo hi kakterkenang pajak impor barang tersebut bisa ditanyakan melalui bravobeacukai atau posindo terkait kebijakan tersebutterima kasih</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>penandatanganan kartu pos oleh pak erickthohir untuk komunitas postcrossing indonesia idpostcrossing dalam acara pembukaan posblocjkt terimakasih posindonesia ig teh iintulip ci giffenrusli mb husnulchatimah mb sitiaisyahid dan pak herinugrahanto</t>
+          <t>shopeeid dikemas ae terus kelalen neg nggo iki hamesti suwiiii reti ngono aku nggo sicepatekspres neg ora yo posindonesia jneid</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pos indonesia bbrp wktu lalu launching aplikasi pos aja kirim barang cukup via hpamp pos aja trs berinovasi utk membangun negeriyg pasti pos aj lbh mudah lbh murah amp siap mngantar kmn sjklw kak ellazefa atw kak ariandiputra mw kirim barang buat airin ya pos aja</t>
+          <t>svxdn posindonesia iya ka sekarang kayanya ems ada fee handling rb seterusnya aku juga kena segitu baru ini</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1436,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>hey guys udah pada tahu belum dengan aplikasi pospaypospay adalah aplikasi bayar menggunakan sistem andorid dan ios milik pos indonesiadengan pospay transaksi lebih mudah dan untung nya berkali selain untung berkali pospay dijamin keamanan nya karena milik bumn</t>
+          <t>yukiebali posindonesia haloo kak maaf mau nanya biaya kirim ems ke japan brapaa ya kalo boleh tau</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>kita pasti akan tahu apa sih kegunaan aplikasi pospay ternyata manfaatnya sangat luar biasa untuk membantu pulsa dan yang paling yakin pospay adalah milik pos indonesia bumn lo gaes</t>
+          <t>kolaborasi pos indonesia dan inti kembangkan bisnis pembayaran digital terkait pengendali operasional pospay agen layanan posfin pola keagenan posindonesia ptintiofficial kemenbumn kemkominfo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mau top up pulsa buat video call dengan pacar atau keluarga lebih mudah dan murah pakaipospay aja pospay aplikasi ewallet milik pos indonesia yang dibuat untuk memudahkan masyarakat melakukan transaksi keuanganudah gitu dengan install pospay dapat hadiahnya berkali</t>
+          <t>pos indonesia kembangkan gerai mypos untuk pasar milenialpt pos indonesia persero meluncurkan layanan terbaru mypos kamis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pernah gak keadaan hujan harus kirim paketnah pos indonesia memberikan kemudahan dengan kirim paket dari hp nama aplikasinya pos aja kuy cobain gaes bumn di masa pak jokowi hebat joss nakula leonitalestari anakkolong yradianto anaklolina uki billray</t>
+          <t>pt pos indonesia persero sedang membuka lowongan kerja bagi lulusan s</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pt pos indonesia jangan hanya menjadi bagian dari sejarah masa lalu tapi harus friendly pada generasi muda demikian pesan erick thohir dalam seremoni peresmian pos bloc jakarta yang digelar di gedung filateli jakarta minggu jokowi</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pospay mengucapkan selamat hari batik nasional ngomong uda pada tahu belum apa itu pospay pospay adalah aplikasi bayar milik pos indonesia yang dibuat untuk memudahkan transaksi keuanganburuan diinstal install sekarang dapat bonus saldo dan pulsa mantab kan</t>
+          <t>lowongan oranger loket bumn pt pos indonesia persero update november terbuka untuk semua jurusan syarat lokasi amp cara melamar baca di</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dionzee edimahamg roemahtenuneka iya akupun mba sambil mbanya cari info dari lombok kira ekspedisi mana yg bisa ship ke aussie juga selain pos indonesiaems</t>
+          <t>afianinana txtdarionlshop jntexpressid iya sih tapi pos indonesia nih keamanannya emang terjamin banget sih jujur kalo buat kirim sura gitu bahkan sampai sekarang aku kalo kirim dokumen ga mau lagi nyoba pake jasa pengiriman lain selain pos indonesia gara kapok</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>smujsin krmtroysuryo sayang posindonesia kalah bersaing dg perbankan dan perusahaan ekspedisi padahal pt pos indonesia sdh mempunyai cabang hampir diseluruh kecamatan era an dam an belajar menabung di posindonesia</t>
+          <t>afianinana txtdarionlshop jntexpressid klo kirim dokumen mah mending pos indonesia dijamin aman</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>apaan si pospay itu pospay adalah ewallet keluaran bumn pt pos indonesia yuk install udah ada di gadget kalianinstall dan top up ada bonusnya pula buruan</t>
+          <t>afianinana txtdarionlshop jntexpressid saran nih kak kalo kirim dokumen mending pake pos indonesia aja dijamin aman sentosa dah itu dokumennya soalnya pernah pengalaman pake salah satu jasa ekspedisi eh nyampe sana dokumennya keremek dong sampe udah ga keruan bentuknya</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lumayan dapat saldo rp ribu hanya dg instal aplikasi pospay dari produk terbaru pt pos indonesia buruan donwload guys</t>
+          <t>crouquembouche txtdarionlshop jntexpressid pos indonesia</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1636,17 +1636,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pos indonesia makin keren mau kirim paket dengan cepat dan mudah ke seluruh indonesia ya pakai pos ajapos aja teman kita menuju suksespos aja cocok untuk pelaku umkm atau bisnis online karena pos aja lebih murah cepat dan aman untung kita makin nambah</t>
+          <t>cutesalmon beacukairi posindonesia too sweet</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>saya berharap pt pos indonesia tidak hanya bagian dari sejarah masa lalu karena di era digital ini perusahaan harus bisa bertransformasi yang disukai generasi mudacoba di sini lapor siapa yang sudah ke pos bloc</t>
+          <t>eelsbth bcsoetta posindonesia bisa konfirmasi ke pihak pos melalui call center di nomor ya kak boy</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>sebagai cah bercita cita kaya turunan dan tanjakan cocok nih buka rekening pakai pospay bebas biaya admin catat bebas biaya admin keren km pos indonesia skrng tahu celah pas pandemic saatnya beralih ke pos aja</t>
+          <t>eelsbth bcsoetta posindonesia coba email kak</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pakaipospay yuk ewallet baru punya bumn pos indonesia pospayofficial nih kali aja saldo diisiin sama mas erick thohir kemenbumn</t>
+          <t>garudacargo posindonesia mohon maaf jika begitu saya ingin bertanya kepada posindonesia jadi untuk barang yang sudah dibawa oleh penerbangan disini garudacargo yang sudah sampai di indonesia namun blm berubah statusnya ini kenapa yah kakterimakasih</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>punyanyamasjoko ariefrasyad billray anaklolina suanggihitam pos indonesia dgn wajah baru dan semangat baru</t>
+          <t>irenepuri txtdarionlshop jntexpressid iya baik makasih yaa infonya cuma kadang kendalanya pos indonesia gakaya jnt or jne yaa yang banyak cabangnya dan buka sampe malam gitu</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>puputtenan ayangutriza wadjdy kemensosri trirismaharini ada pos indonesia non bank juga kan jadul pos indonesia itu efektif banget utk soal kirim mengirim uang sampai level dusun namanya wesel</t>
+          <t>jokowi erickthohir telkomindonesia peluncuran mypos bebarengan dengan bergabungnya titik lokasi menjadi gerai mypos dari berbagai daerah di indonesia peluncuran mypos dipusatkan di kota surabaya menandai dimulainya terobosan terbaru pos indonesia ini jokowi erickthohir telkomindonesia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tolakbigotnkri useehun lampung iecstyling penyukaombak ini inovasi yang harus dilakukan dan kita berharap pos indonesia melakukan upgrade melindungi konsumen sekaligus meningkatkan layanan</t>
+          <t>jokowi erickthohir telkomindonesia satu juta number of account terlampaui ini yang harus kita jaga kata komisaris pt pos indonesia maninga dayan situmorang pada acara bertema dari juta menuju jutaan pelanggan pospay di pos bloc jakarta pusat jokowi erickthohir telkomindonesia</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bumn punya banyak cara untuk melakukan revolusi dalam hal digitalisasi salah satunya pos indonesia melalui aplikasi hebat pospayofficial pak jokowi memang hebat membuat bumn semakin terdepan</t>
+          <t>klmholic kenapa sicepat jadi berulah sih padahal dulu termasuk yang bagus menurutkuudah lah pake pos indonesia aja yg murah</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1796,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>dua aplikasi pos indonesia ini super sekali ibaratnya gini mau kirim paket tinggal pake pos aja giliran bayar membayar klik aja pakaipospay inovasi dari pos sangat membantu bumn di masa pemerintah jokowi terus melaju kencang cc budimandjatmiko chusnulch fagtng</t>
+          <t>makestarcorp is this your doing or our local customs beacukaiindo or our postal office posindo i dont get the benefit photocard at all</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>just sharing tas anyaman ini minggu lalu gagal kirim ke australi alasan petugas pos indonesiaems nya berbahan baku alam misal kayu daun dll mmg sulit masuk ke australiada larangan lesson learned pos indonesia good job jalankan tugas memfilter kiriman dgn ketat</t>
+          <t>mcitraningrum beacukairi posindonesia kak</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pos indonesia kini tak lagi soal surat menyurat</t>
+          <t>onedayxjydr nojamgrasss en aku tahun kirim pc ke aussie pake pos aman sejahtera damai sentosa yaiyalah dulu belum in banget perpcan tp bagus kok pos indonesia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pospay bikinan pos indonesia salah satu bumn kita kita dukung bumn maju dengan instal dan menggunakan aplikasi milik bumn contohnya pospay ini banyak lho bonusnya download di appstore dan playstore ikuti cara instalnya dan dapatkan banyak keuntungan pospayofficial</t>
+          <t>pxtriming shopee mu aktif pos indonesia gak sih put</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>skrng pos indonesia punya dompet digital namanya pospayamp sekarang pospay juga lagi mengadakan ga ayoo buruan ikutan kali aja kalian menjadi bagian dri org yg beruntung itu pospayofficial</t>
+          <t>rkcollect nggak sama aja pakek shopee bisa kok kalau sellernya aktifin fitur pos indonesia</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>stokdarah selasa sept pkl wibmobile unitselasa sept pt pos indonesia ungaranpkl wibinfo layanan darah pasien jamdonor darah di pmi pkl wibvisit pmijawatengah palangmerah infoungaran bloodlifeid</t>
+          <t>txtdarionlshop jntexpressid sumpah posindonesia itu paling baik pengirimannya untuk saat ini paling terpercaya jasa kirim yg itu suka ada mulu masalah di komplen gamau malah lempar lemparan</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>stokdarah senin sept pkl wibmobile unitselasa sept pt pos indonesia ungaranpkl wibinfo layanan darah pasien jamdonor darah di pmi pkl wibvisit pmijawatengah palangmerah infoungaran bloodlifeid</t>
+          <t>untungputro gojekindonesia jadi gak nyaman banget khusus buat pedagang yg pake jasa gojekindonesia ya tetep aman si jnt jne tiki amp pos indonesia posindonesia</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1936,17 +1936,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ayangutriza wadjdy kemensosri trirismaharini bni bri amp pos indonesia itu ada di mana apa sih sulitnya nyalurkan bantuan kok tampak susah amat kl yg beginian dilakukan pihak swasta pasti berescontoh toko online bisa ngirim barang ke hampir seluruh pelosok tanah airapakah motto kl bisa dibikin susah knp dipermudah</t>
+          <t>ursingularity clarissafstyles sicepatekspres makin gk bener ya kurir sekarang mau kembali ke pos indonesia aja mana lebih murah</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1956,17 +1956,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>nurfajarilah tciskoo masbed phylosofyy maksudnya di pos indonesia ya</t>
+          <t>vvonpil woahhh aku juga ikut komunitas filatelinya pos indonesia di bandung</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>posindo memperkenalkan new platform layanan digital kurir dan jasa keuangan diantaranya adalah posajaofficial dan pospayofficial serta pos migran indonesia kepada menteri bumn erickthohir</t>
+          <t>wickedbunnies maswis literarybase plus dihapuskannya kebijakan pengiriman buku gratis via pos indonesia</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>posindo memperkenalkan new platform layanan digital kurir dan jasa keuangan diantaranya adalah posajaofficial dan pospayofficial serta pos migran indonesia kepada menteri bumn erickthohir</t>
+          <t>bidik milenial pos indonesia kembangkan gerai mypos posindonesia kemenbumn kemkominfo</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>posindo memperkenalkan new platform layanan digital kurir dan jasa keuangan diantaranya adalah posajaofficial dan pospayofficial serta pos migran indonesia kepada menteri bumn erickthohir</t>
+          <t>bidik pasar milenial pos indonesia luncurkan gerai mypos posindonesia kemenbumn kemkominfo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>yradianto psaja sayangnya selalu kalah dg courier modernseharusnya sll terdepan utk jasa distribusi kurela pilih pos klo ada pilihan pengiriman di online biar maju pos indonesia koe</t>
+          <t>cdm min thks posindonesia</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>yradianto posindonesia pt pos indonesia beradaptasi dgn kemajuan tekhnologi</t>
+          <t>dirut posindonesia jelasin oranger mawar kolaborasi pt pos indonesia x smoot motor indonesia powered by swap energy indonesia kejorasbiorbitportfolio</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bertepatan dengan hari kesaktian pancasila pos indonesia luncurkan aplikasi ewallet untuk mempermudah transaksi keuangan kitaburuan install aplikasinya agar dapat bonus saldo dan pulsa dengan menggunakan aplikasi pospay kita sudah ikut membantu keuangan negara</t>
+          <t>hati hati mengirim barang melalui posindo posindonesia posindonesia saya pesan barang dari tokped jelas kode posnya malah dikirim ke nanga tepuai kode pos sudah itu ditulis alamat tidak dikenal padahal pakai jne tiki sicepat sampai dengan cepat</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ketua pc dn sekretaris gp ansor majalengka brsama bp adin jouharudin komisaris pt pos indonesia prof kh nizar sekjen kemenag ri dn beberapa bumn bni pt pindad pt kai persero pt perhutani nusantara viii dalam rangka pendampingan umkm gerakan pemuda ansor jawa barat</t>
+          <t>kehadiran pospay dari pt pos indonesia semakin meluas di tengah masyarakat indonesia per awal november ini setidaknya terdapat lebih dari juta masyarakat telah mengunduh aplikasi pospay di gawai masingmasing jokowi erickthohir telkomindonesia</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>platform baru layanan kurir digital dari pos indonesia pos ajayang penasaran klik aja linknya</t>
+          <t>penyidik pidana khusus pidsus kejaksaan tinggi kejati jawa barat jabar kembali menahan dua orang tersangka terkait kasus dugaan korupsi di pt pos finansial indonesia selaku anak perusahaan pt pos indonesia pada rabu kejatijabar ptposfin tersangkakorupsi</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2136,17 +2136,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>pt bank mnc internasional tbk babp dan pt mnc teknologi nusantara anak perusahaan dari pt mnc kapital indonesia tbk bcap serta mnc ecommerce telah menandatangani perjanjian kerja sama dengan pt pos indonesia persero</t>
+          <t>pt inti menggandeng pt pos indonesia dengan mengkolaborasikan kedua anak perusahaan yaitu pt inti konten indonesia anak usaha pt inti dan pt pos finansial indonesia anak usaha pt pos indonesia melalui penandatanganan perjanjian kerja sama tentang pengendali operasional pospay</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>sudah tahu ada pospay ewallet dari pos indonesiadengan menginstall dan mengaktivasi pospay akan didapatkan bonus saldo ribu pulsa ribu isi ulang minimal ribu ada bonus lagi pulsa ribupospay</t>
+          <t>pt pos indonesia persero meluncurkan layanan terbaru mypos kamis layanan ini hadir untuk menggarap pangsa pasar bisnis kurir dan logistik bagi kalangan milenial jokowi erickthohir telkomindonesia</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ferdistech satyasuryawan dkijakarta selamat pagi kak dipastikan kakak menggunakan aplikasi signal dikarenakan akan dikirim ke alamat yang sudah kakak daftarkan oleh pt pos indonesia tks tw</t>
+          <t>pt pos indonesia cabang kota jayapura dan bank bni cabang jayapura telah memberikan bantuan berupa jaring panahan sampah dan bantuan mesin montor untuk kampung nelayan basmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>kartlest puntwen txtdarionlshop wakaka duitnya dikirim pake pos indonesia</t>
+          <t>target pencapaian pos indonesia dari juta menuju jutaan pelanggan pospay posindonesia kemenbumn kemkominfo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>posindo pt pos indonesia gimana bumn mau bersaing sama swasta kalau layanannya aja kaya gini paket dokumen butuh waktu berharihari padahal jakartatangsel tuh gak jauh amat kemenbumn erickthohir</t>
+          <t>website posindonesia buat pengiriman luar negri kok begini amat kalah bagus ama website wkwkk</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sucksukeh maulanahloh memefess kemungkinan beda beda estimasi nyampe nya rute pengiriman juga berpengaruh tapi sekarang setiap ekspedisi bersaing ketat pos indonesia juga gak kalah lebih hemat</t>
+          <t>lowongan frontliner bumn pt pos indonesia persero update november terbuka untuk semua jurusan fresh graduateberpengalaman syarat lokasi amp cara melamar baca di</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2256,17 +2256,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>amazing photoshoot for pospay pt pos indonesia products with rahmat erwin the bronze medal winner in the mens kg class weightlifting at the tokyo olympicsdonewithflagaflagamediaasia fmadigitalmarketing eventorganizer eventmanagement pospay posindonesia</t>
+          <t>lowongan oranger loket bumn pt pos indonesia persero update november terbuka untuk semua jurusan syarat lokasi amp cara melamar baca di</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bagi para pedagang kecil dan masyarakat yang tidak memiliki rekening bank atauunbankable pt pos indonesia persero sudah menyiapkan layanan digital pospay layanan ini sangat membantu mereka untuk melakukan transaksi perbankan pospay</t>
+          <t>riverheaven jokowi pt pos indonesia adalah salah contoh betapa lambannya berinovasi hingga lahir begitu banyak bayi yang jauh lebih cepat berlari mengantar paketan miris padahal hampir setiap sudut sempit sekalipun pos selalu ada tapi entah kenapa seperti kalah dengan kompetitor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>banyak yg bertanya pospayofficial it apasihpospay itu merupakan layanan pembayaran milik pos indonesiaamp ad juga tmn yg menanyakan gmn cara aktvasi pospay berikut cara aktivasinya ya</t>
+          <t>adiwp posindonesia cepetan mbah google</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bayarbayar makin lancar lewat posindonesiaig indonesia ada yang baru nih sob bayar tiket damri bisa melalui kantor pos indonesia loh makin praktiskan cek cara bayar tiket damri di slide berikutnya</t>
+          <t>bankmandiri mbankingnya ga bisa utk transaksi baik topup pospay va payment posindonesia tolong perbaikan secepatnya</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2336,17 +2336,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>by pmikabsemarangstokdarah senin sept pkl wibmobile unitselasa sept pt pos indonesia ungaranpkl wibinfo layanan darah pasien jamdonor darah di pmi pkl wibvisit donordong pmiselalubantu</t>
+          <t>bbbkjcl jntexpressid pake pos indonesia aman gak yah</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2356,17 +2356,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>disaksikan erick thohir pos indonesia perkenalkan aplikasi posaja dan pospay pakaipospay</t>
+          <t>bertanyarl pos indonesia yang harimurah</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>halo sobattenang jika satpas di area kamu tidak ada dalam daftar kamu dapat memilih satpas yang terdekat dan memilih metode pengiriman pos indonesia agar sim dikirim ke tempatmukalau ada pertanyaan dm aja yadigitalkorlantassimonline</t>
+          <t>bravobeacukai posindonesia nah itu ka aku udah bayarkan sesuai yang tertera di web resmi beacukai melalui billing konsol yg biasa bayar tapi dari pihak pos menagihkan kembali pajaknya ditambah biaya adminnya</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>mau ngirim paket pakai posajakau bayar tagihan pakaipospay keduanya dari bumn pos indonesia yang tuatua keladi makin tua bikin aplikasi</t>
+          <t>chittadoie posindonesia apabila seperti itu maka silahkan konfirmasi langsung dengan pihak posnya ya kak jun</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>modus baru penipuan olsms menyerupai link dari pos indonesia ada link untuk tracking paketpesan paket tertahanjikw merespon penipu akan meminta tebusa agar barang bs dikirimkan ke alamatsaran jgn merespon jika penasaran cek paket di</t>
+          <t>chittadoie posindonesia hah iya kak ada biaya handling gudang kok jadi mahalllll biasanya cuma tax biaya kirim k</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2436,17 +2436,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>naruh rasa di atas cintacintanya untuk someone di jakartakamu lahir di era apasudahkah pakek pos indonesiaberanidamaisaatnyaberaksijogjaitudamaidutadiy</t>
+          <t>chittadoie posindonesia hai kak kami dari pihak bea cukai sendiri hanya berwenang menentukan pajak dan bea masuk ya kak apabila ada jenis pembayaran yang lain silahkan konfirmasi pada jasa pengirimanya ya kak jun</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasave the daterabu september wiblive zoom webinar motionbanking digitalbanking futurebankinghere mncbank motionpay posindonesia</t>
+          <t>cmsnartistid kalo aku biasanya minta fullpayment stlh client fix sm sketch buatanku tp kalo nilai commisnya udh diatas sejutaan bs dp lukisan tradi ga selalu aku kirim fisiknya semua balik lagi ke client kalo domestic aku pake jn internasional via pos indonesiarlnems</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>pt pos indonesia persero memberikan diskon layanan kurir kilat khusus hingga persen dalam memperingati hari pos sedunia tempobisnis</t>
+          <t>collegemenfess sicepat bisa pos indonesia bisa</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>pt pos indonesia persero telah bekerja sama dengan yayasan rumah zakat indonesia khususnya dalam melakukan setoran zakat infaksedekah donasi bencana donasi kemanusiaan kurban wakaf dan dana sosial keagamaan lainnyapakaipospay</t>
+          <t>davidwijaya sudah sejak jaman jebot moral bangsa kita yg spt ini memang gak bisa sembuh thn amp sy terima paket dr aussie via pos indonesia x kali dibuka duluan amp kehilangan barang kirim surat uang rb ke mks via pos indo juga hilang uangnyamental maling</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>selamat hari batik nasional jangan lupa beliin batik buat kesayangan yes belinya pake pospayofficial kirimnya pake pos indonesia dukung terus bumn indonesia semakin maju</t>
+          <t>deerchan hii aku bisaa ya rumah ku deket jnt jne sicepat tiki posindo shopeeexpress dom bekasi ya kak bisa cek di pin kutesti ku yap</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>suatu kehormatan bagi mnc group atas kerja sama dengan pt pos indonesia persero inizaman sekarang ini harus mengembangkan ekosistem yang sebesarbesarnya jadi harus beraliansi harus berkolaborasi</t>
+          <t>enggalpamukty ada pilihan ga selain via posindo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tv tua tv lamadisebutnya barang klasikmakin tua makin gayapake pospay makin asikbegini nih cara aktivasi pospaymu ewallet dari pos indonesia</t>
+          <t>floradawnist jntexpressid wah aku ga mau pake jasa jampt lagi lain kali ini aku lagi nunggu paket iket rambut sama vitamin kuku parah sih kalau sampe di ambil juga gila ajalah kirim paket pake pos indonesia aja deh kalau tau begini</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>update ektp pakai pandu garut pas keterima ktp minta bayaran rbktp tp fisiknya cuma ktp aja bener gapake amplop atau apapun dan yg nganterin pake seragam motor pos indonesia ini emang kayak gitu ya mayan udah ktp rb nunggu ktp lg jadi rb infogarut</t>
+          <t>futurevillain tjokyura kirimnya pake pos indonesia</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>sobatbumn pt pos indonesia persero memperkenalkan new platform layanan digital kurir dan jasa keuangan yakni layanan digital posaja pospay dan pos migran indonesia kepada menteri bumn erick thohir</t>
+          <t>garudacargo dari pihak posindonesia bilang belum menerima paketnya dari pihak maskapai kak maka dari itu saya mencoba bertanya ke pihak penerbangan terimakasih</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>xiaosaurus sellkpopfess oh kirain cuma bisa ke pos indonesia gitu nnti klo tokoku dpt notif gini lgi aku dm kmu buat nanya ya kmren mau dftar tpi msih bingung</t>
+          <t>garudacargo oh begitu yah jadi status barang seharusnya posindonesia sudah ada jika peneribangan sudah sampaiterimakasih kak</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ariandiputra pospayofficial keren nih inovasinya pos indonesia jd inget jaman kuliah nungguin wesel pos buat bayar kos</t>
+          <t>garudacargo terimakasih kakjasa pengiriman ini maksudnya posindonesia kah kak</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bekomingk selamat pagi kak untuk paket rkua masih ditangani oleh pos indonesia ya informasi lebih lanjut dapat konfirmasi posindonesia ya kak trims zia</t>
+          <t>gatautt pos indonesia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bhhyunjin literarybase udah sama shipping di bookdepo free shipping worldwidee cuma bayar admin pos indonesia k aja pas sampe rumahh</t>
+          <t>gathelisa posindonesia dari dalam negeri ka</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bolukubolukeju shopeeid hahaha pt pos indonesia</t>
+          <t>gathelisa posindonesia kalau hitung pajak sy gatau kak hitungannya gmn itu beacukainya tp instal aja app mobile beacukai di android nanti masukin fob trs muncul kisaran pajaknya</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>cameronhall shirtx price of the shirt surely affordable but i must checking first to pos indonesia to get the actualcurrent shipping cost</t>
+          <t>hanawatashiwa fwbess museum pos indonesia</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>dewapuci hotradero nonamazon iya saya juga prefer ems ratarata sd minggu sejak dikirim bayar pajak sesuai bill dari bc melalui kantor pos bisa diambil bisa juga diantar pos indonesiauntuk preference dhl bs sign up disini bu nanti akan ada menu seperti di bawah</t>
+          <t>hummingwinter wonusikucing coba pakai shopee xpress atau pos indonesiakalo sellernya gak gunain coba request biar sellernya menyediakan jasa ekspedisi itu dan kalo memang sellernya mau kadang seller gak aktifin jasa kirim tertentu karna jarak rumah ke ekspedisi jauh dan gak diambil kurir</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>erickthohir prasetyotien pos indonesia shrsnya menjadi kurir terdepan dan unggul dibanding jasa kurir lainnya hrs merajai semua lini mulai dr kota besar sampai ke desa krn selain memiliki nilai historis yg panjang jg didukung oleh infrastruktur yg kuat butuh orang kreatif yg penuh dgn terobosan</t>
+          <t>jakanonim chesterchazrey pt pos indonesia persero menaikkan tarif pengantaran barang kiriman impor terhitung sejak september khusus kota semarang</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>isntyouradmirer sbyfess bukan ninja xpress si cepat wahana anter aja jne jnt pos indonesia</t>
+          <t>kaahyuk mchch pake pos indonesia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>jajanbighit pos indonesia</t>
+          <t>kurohtenshi posindonesia silakan membuka laman untuk mengetahui pemeriksaan atas kiriman di atas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>jenowley jajancitybase ku kirim lewat pos indonesia biar ngueng hingga medan</t>
+          <t>leendoodles posindo bye ems too expensive but disappointing</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>lunarcatto shawolstore pake pos indonesia bisa kayaknya kak</t>
+          <t>leendoodles posindo sungguh sulith disappointed but not surprised anymore</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2856,12 +2856,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>michellell yradianto promosi ya neng kata nya program dari pt pos indonesia utk jadi agen bayar jt</t>
+          <t>mahmudbeny pos indonesia wkwk</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>narkosun pospayofficial herannya kalo belanja online kenapa malah gak ada pilihan pengiriman lewat pos indonesia itu kan core businessnya</t>
+          <t>mandiricare halo ini kenapa error terus ya multipayment ke pos indonesia sudah dr satu jam yg lalutransaksi tf dan multipayment ke jasa lain lancar padahal</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>pnjljhid kemkominfo telegram bukannya jaman jadul banget tuh produk pos indonesia yang kalau dapat telegram pasti langsung shock banyakan berita duka cita</t>
+          <t>mhangunmr posindo</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>posindo menghadirkan aplikasi digital untuk melakukan berbagai transaksi pembayaran menjadi lebih mudah karena bisa menggunakan pospayofficial</t>
+          <t>miyaousamu jntexpressid mending pake pos indonesia kak kemarin aku beli barang elektronik di toko ijo dan pake jasa pos indonesia barangnya sampe rumah sesuai estimasi dan aman gak ada sobekan atau cacat saran aja sih supaya gak dirugikan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>posindo menghadirkan aplikasi digital untuk melakukan berbagai transaksi pembayaran menjadi lebih mudah karena bisa menggunakan pospayofficial</t>
+          <t>miyaousamu jntexpressid mending pake pos indonesia mungkin lebih lama tapi sejauh ini cuma pos indonesia yg bisa dipercaya gak suka bongkar paket orang</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pospayofficial ini ewallet keluaran pos indonesia bumn doong selalu dukung bumn indonesia makin maju erickthohir yuk install dan cekout hari diskonan onlen pakaipospay</t>
+          <t>mungillicious bertanyarl admin di pos indonesia</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2976,12 +2976,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>romeoprojects posindonesia halo gan kmarin brapa lama yah paketnya smpai pakai pos indonesia</t>
+          <t>mungillicious bertanyarl maaf ya klo salah ku liat atas pintu yg di jendela oren kyk warna pos indonesia di tmpatku</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>siscauli sirprasayadi pos indonesia</t>
+          <t>nonalucaswong aku kirim lewat pos indonesia</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>srimartiningsih jntexpressid halo kak kirim motor via kantor pos indonesia saja estimasi seminggu sampe kok</t>
+          <t>obocha jogipunya ngaku doang lu ex kurirkurir pos indonesia kali lo yg sepi kiriman</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>tokopedia tokopedia katanya gratis ongkir dimananya ya aku gak pernah gratis ongkir wajib kudu bayar ongkir gpp sih i love jneid delivery nya trusted alhamdulillah gak pernah salah alamat kek yg lain lain pak pos indonesia dan lele express punya lazada juga selalu akurat</t>
+          <t>osoekaryo jokowi support pos indonesia</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>update pengiriman album with me againseluruh album sudah dikirim dari jepang hari kamis tgl oktober album mengalami keterlambatan pengiriman karena harus menunggu album dari beberapa tokosampai hari ini belum ada update kedatangan barang di pos indonesia</t>
+          <t>posindonesia beacukairi pakbu mohon informasinya untuk biaya pajak paket saya dgn tracking lc</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ayooo pos indonesia kalian bisa jauh lebih maju semangaaaat</t>
+          <t>posindonesia bravobeacukai hai pos dab beacukai gimana nih tagihan pajak saya yang sudah saya bayar seperti yg tertera di beacukai barang kiriman k tapi dapet notif pospay disuruh bayar lagi k biasanya adm pos cuma k yang mana yang bener nih</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>bayarbayar makin lancar lewat pos indonesia ada yang baru nih sob bayar tiket damri bisa melalui kantor pos indonesia loh makin praktiskan cek cara bayar tiket damri di slide berikutnyasiapa nih yang rumahnya dekat dengan pos indonesia komen yuk ayonaikdamri</t>
+          <t>posindonesia mandiricare halo sudah dicoba berkali kali ini tetap tidak mau</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>bismillah kolaborasi rumahzakat dan posindonesia memudahkan masyarakat berdonasi dan memperluas layanan manfaat melalui pospay diseluruh outlet pos indonesiazakat sedekah wakaf rumahzakat indonesia</t>
+          <t>rhry posindonesia wah serius bang kwkwkkwtanya cpnya nnti dikasih no resinya</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>dugaan korupsi rp miliar di anak perusahaan pt pos indonesia seorang tersangka kembali ditahan</t>
+          <t>serendipicill ctbzale kurang tau coba dm accnya pos indonesia aja</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>gemasulawesi pt pos indonesia persero bekerja sama komunitas santripreneur indonesia memperluas jaringan bisnis kurir dan logistik sebagai langkah nyata membantu pemerintah membuka lapangan usaha dan mempercepat pemulihan ekonomi akibat pandemi</t>
+          <t>svxdn posindonesia halo ka kalo boleh tau ini cari hitung pajaknya gmn ya</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>halo sahabat posajangingetin kembali nih ada yang baru dari pos indonesia untuk digital kurir yaitu posajanew digital platform posaja memberikan layanan yang terbaik untuk para konsumen masyrakat luaspilihposajaposintansplusdigitalkurirchannelmudahcepataman</t>
+          <t>svxdn posindonesia kalo pake itu udah pasti segitu bea cukainya atau beda sedikit</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>haloh malem boleh minta waktunya sebentar vshuhua ni ada titipan dari pos indonesia katanya sorry lama tadi macet di laut happy watching ya su</t>
+          <t>taexxnu ulanpdensi kirimnya lewat kantor pos indonesia jualnya di instagram pake ht wtsphotocardbts wtsbtspc or dll nanti juga banyak yang dm bayarnya pake paypal trs kamu pake jasa cv to idr</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>kejaksaan tinggi jawa barat menahan empat tersangka dalam kasus dugaan korupsi pos finansial indonesia posfin anak usaha pos indonesia</t>
+          <t>trisnonovichok hansssolo yg bongkar di pos indonesia itu bea cukai pernah liat di acara nya bea cukai</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>menteri bumn erick thohir mengapresiasi pt pos indonesia yang mulai bertransformasi ke ranah digital sesuai tuntutan zamandan aku kembali pakai pos aja lagi dukung pemerintah dan bumn dan dukung keluarga yg dkerja di pos indinesia xixi airinairinnz</t>
+          <t>urfavisme posindonesia halo ka mau nanya ini kirim pc nya dari luar atau dalam negeri ya</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>menteri bumn erick thohir mengapresiasi pt pos indonesia persero yang mulai bertransformasi ke ranah digital seiring tuntutan zaman kumparannews</t>
+          <t>waitefah posindonesia bisa cek di sini</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pelni dan pos indonesia jalin kerja sama tingkatkan kiriman poslaut</t>
+          <t>whitecloudstory posindo mending pake kilo id</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>perluas jangkauan motionbanking gandeng pos indonesiaposindonesia motionbanking rakyatmerdeka rmid</t>
+          <t>woocattoo posindonesia iya kiii makanya kaget juga aku mana mahal bangettt wkwkwkwk</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>pos indonesia dan pelni lanjutkan layanan pos laut</t>
+          <t>yogihutama posindonesia untuk saat ini atas respon belum dilakukan pemeriksaan di bea cukai ya kak dikarenakan masih di pihak pos maka silahkan hubungi pihak pos untuk segera menyerahkan barang tsb agar dilakukan penetapan jun</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>pos indonesia diskon kilat khusus sampai</t>
+          <t>youngandlynn muryoung halo kak kalo mau pake pos indonesia mereka skarang ada layanan pick up kok namanya oranger bisa diminta pick up via halopos hehe</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3356,12 +3356,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>pos indonesia yang dulu identik dengan surat perangko dan wesel sekarang menyediakan aplikasi ewallet pospay selama oktober ini banyak bonus buat anda yang menggunakannya</t>
+          <t>yukiebali posindonesia ko gaada ems ya kak adanya rln sama epacket</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>pospay ewallet dari pt pos indonesia banyak manfaatnya aktivasi pertama saja sdh dikasih bonus saldo pulsa isi ulang minimal rp dpt bonus lagi rppospay mantap</t>
+          <t>robusta bpanaerob natural process robusta bpwine processtetapi jng khawatir kami jg menjual roasted beans grkamu bisa memilih grindsize yg diinginkan halus sedang atau kasaruntuk memesan monggo dmpengiriman via pos indonesia</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>pt pos indonesia jgn hanya menjadi bagian dari sejarah masa lalu tapi harus friendly pada generasi muda demikian pesan menteri bumn erick thohir dalam seremoni peresmian pos bloc jakarta yg digelar di gedung filateli jakarta minggu</t>
+          <t>apakah hrs beralih kembali ke kantor pos indonesiakenapa skr banyak jasa kirim yg ga amanahserem juga</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>pt pos indonesia sejak dulu jadi andalan masarakatdi era digital ini masarakat bisa gunakan aplikasi pospay layanan pembayaran milik pt pos indonesia untuk melakukan berbagai transaksiselamat hari pos sedunia</t>
+          <t>dulu rada sering kirim paket ke indonesia pake layanan pos memang selalu dibuka dicek oleh beacukairi di depan petugas posindonesia dan dibungkus ulang ada biaya tambahan beberapa ribu kadang berantakan tapi ada juga kejadian manis gini</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>sangat disayangkan jika pos indonesia posindonesia melakukan pengiriman dengan asalan cc kemenbumn</t>
+          <t>ecommerce meningkat pesat dan akan terms meningkat peluang bisnis ikutannya adalah bisnis logistik dan kurir servis pt pos indonesia pt garuda indperum damri dan pt kai seharusnya menangkap peluang tersebut karena infrastruktur siap mhn didorong erickthohir jokowi</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>segenap keluarga besar kopnuspos kopnuspos mengucapkan selamat atas penganugerahan tanda kehormatan satyalancana wira karya dari presiden ri jokowi kepada bapak charles stiorus selaku direktur bisnis jaringan amp layanan keuangan pt pos indonesia persero posindonesia</t>
+          <t>kegiatan tersebut diikuti oleh bendahara sub unit yang berada di lingkungan dinas pendidikan provinsi lampungpada kegiatan yang sama kantor pos pemeriksa pajak lampung juga berkesempatan menyampaikan materi terkait meterai tempel yang di distribusikan pt pos indonesia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>selamat hari batik nasionalsudah punya batik belum klo belum bisa beli online bayarnya pake pospay ngirimnya pake pos indonesiaaktivasi pospay pertama kali langsung dpt rp saldo dan pulsa rpsudah ada di playstore ya tinggal download dan instal</t>
+          <t>lowongan kerja kantor pos indonesiaposisi lokasi kualifikasi dan melamar buka link gabung di channel telegram gratis</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>siapa yang masa mudanya relate dengan surat cinta dan pak pos pos indonesia sekarang dah makin keren lho dah bisa kirim uang dah punya pospayofficial dompet digital punya aplikasi psaja kalo mau kirim paket bumn makin maju</t>
+          <t>lowongan kerja pt pos indonesia persero update silahkan klik diuntuk teman anda agar bermanfaat silahkan like dan share suka dan bagikan informasi agar segera dilihat oleh yang lainnya</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>trimakasih korlantasid sim c saya sudah jadi penantian sept sept serta trimakasih pos indonesia yang sudah mengantarkan</t>
+          <t>mau tanya nih minmin dkijakarta apakah bayar pajak tanah amp pajak kendaraan bisa via onlineaplikasi lalu dikirim bukti pembayaran atau stnknya via posindo</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>urutan ekspedisi terbaik sicepat jnt pos indonesia nitip dong jne</t>
+          <t>penyakit lo berdua ga sembuhsembuh ya kalo abis bongkarcek barang tuh tolong balikin lagi ke bubble wrapnya jangan lo telanjangin aja barangnya terus ga lo beresin lagi penyok semua itu barang dikira murah ya posindonesia bravobeacukai</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>yeaaa pemilik rekening giropos sekarang dapat mengakses layanan giropos dan transaksi keuangan maupun layanan pos indonesia lainnya secara mobile pakaipospay</t>
+          <t>pos aja yang merupakan transformasi dari pos indonesia meluncurkan layanan kurir dan kirim barang sesuai dengan visinya untuk terus tumbuh usaha ini pun terlihat dari kolaborasi dengan pesantren koperasi dan umkm di berbagai daerah</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>yuk share pernah ada cerita menarik apa tentang pos indonesia</t>
+          <t>pos indonesia and smoot to launch womenoriented business heaptalk jakarta pos indonesia ties up with pt smoot motor to initiate business opportunities that empower women the in</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>museum pos indonesia</t>
+          <t>pos indonesia bersama smoot rilis jasa kurir dengan motor listrik</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3616,17 +3616,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sejumlah layanan digital tersebut merupakan bentuk komitmen pos indonesia untuk menghadirkan layanan prima kepada masyarakat sesuai dengan perkembangan teknologi dan keuangan saat ini kata dia pakaipospay</t>
+          <t>sakit hati tuh ketika parkir di kantor pusat pt pos indonesia lihat banyak pajero dan fortuner keluaran terbaaru dgn plat rfs parkir berjajar usaha gak ngasilin duit tapi fasilitas pejabatnya ttp terjaga</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>beritabumnpos indonesia tandatangani perjanjian kerja sama dengan mnc ecommerce untuk meningkatkan kualitas dan jangkauan layanan pengiriman barang ke konsumen di seluruh indonesia</t>
+          <t>to kantor pos indonesia ahahahahahahha rasain mampus kan pasti km kira aku beli pc album lagi pantesan di bongkar kayak begini yang bongkar be like loh kok tumben bukan album isinya</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>beritabumnselamat kepada pt pos indonesia persero meraih empat penghargaan dalam ajang top grc awards</t>
+          <t>tolong posindonesia garudacargo jangan saling lempar dm ke pos bilangnya belum terima barang dari maskapai dm maskapai bilang suruh konfirmasi ke jasa pengiriman nih resinya ebkr ga udah sampe jkt dari tgl sampe sekarang stuck</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3676,17 +3676,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>beritasampitperingati hari pos sedunia pos indonesia beri diskon kilat khusus hingga persen bandung pt pos indonesia persero dalam memperingati</t>
+          <t>udah kena bea masuk beacukairi kena lagi biaya admin and handling fee dari posindonesiasyulit skrg jajan dr luar</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>lokerbdl lowongan kerja lampung oranger pos indonesia</t>
+          <t>cara kirim gift ke member x kirim langsung ke alamat swing entto swing entertaiment mr yuhan han x addres floor th swing ent itaewondong yongsangu seoul postal code jasa pengiriman ems pos indonesia</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>temanpemilihkpu kabpandeglang menerima kunjungan dari pihak ptpos indonesia kabpandeglang dalam acara inipt pos indonesia memberikan informasi perihal layanan digital aplikasi pospay sebagai bentuk mempermudah pelayanan untuk masyarakat indonesia di era digital masa kini</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>duet dengan pt pos indonesia ribu ektp antar alamat sudah mendarat di rumah penerimabaca selengkapnya di</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>akukayabgt pos indonesia</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3776,7 +3776,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>abiiman hai kak untuk paket tsb silakan konfirmasi ke pihak pos indonesia di call center ya kak boy</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3796,7 +3796,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>acoerate hai aco menjawab pertanyaa terkait dgn tbpkp pengiriman akan dilakukan oleh pt pos indonesia maksimal hari kerja mohon kesediaannya utk menunggu apabila mengalami kendala jgn ragu utk menghubungi tim cs melalui live chat di website kami terima kasih</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>afifkuswanto baik kak apa yang disampaikan diatas sudah benar terkait mekanisme pendistribusian pake paket dapat dikonfirmasi ke pos indonesia melalui call center atau livechat karena merupakan kewenangan dan tanggung jawab pos indonesia</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3836,12 +3836,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>aidlelyn hai kak status atas resi tsb sppbmcp telah dilunasi maka silahkan hubungi pos indonesia terkait pengirimanya ya jun</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>almira hai kak kami cek untuk paket dgn no resi tsb sudah rilis dari bea cukai per tgl ya kak terkait proses pengirimannya silakan langsung konfirmasi ke pihak pos indonesia via call center di nomor boy</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>almira halo kak paket czsg sudah rilis dan lunas pajak ya tinggal menunggu pengiriman oleh pos indonesia dan jika dirasa lama bisa konfirmasi ke call center halo pos dnp</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>andisim hehe moga pos indonesia terus bisa kreasikan kesan tak terlupakan pada tiap generasi</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>andreascuntoro hai andreas menjawab pertanyaanmu jika sebelum pembayaran kamu memilih opsi pengiriman tbpkp tanda bukti pelunasan kewajiban pembayaran ke alamat domisilimu maka dokumen akan dikirimkan oleh pt pos indonesia maksimal hari kerja</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ariandiputra membantu banget terimakasih pt pos indonesia</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3956,7 +3956,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ariandiputra keren pos indonesia mengikuti perkembangan zaman</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ariandiputra mantabada gebrakan di bisnis pos indonesia</t>
+          <t>google form we provide delivery options with ems pos indonesia or tim expresspricelist for delivery by ems pos indonesiapricelist for delivery by tim express</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>artistsbase ada sempet baca baca di web pos indonesia tp aku ga ngerti kayaknya kurang jauh ngubek web nya sihdlu tanya ke jne sama tiki muahal banged an lebih kaget aku</t>
+          <t>beritabumnpos indonesia hadirkan layanan baru mypos yang menggarap pangsa pasar bisnis kurir dan logistik untuk kalangan milenial</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ayangutriza lalu pos indonesia masuk kategori apa ya mas</t>
+          <t>ggask kalau pakai ekspedisi pos indonesia tulis resi aja atau beserta alamat</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>beacukairi mohon dikoreksiketika barang sampai idjkt paket dibea cukai langsung diserahkan pos indonesia lalu setelah kurir antar ke rumah baru saya bayar pajaknya atau ada proses input data online dulu untuk keperluan bea cukai</t>
+          <t>en kirim barang kpop make pos indonesia insyaallah aman pas itu aku kirim gelas kaca aja ditambahin bubble warp lagi jadi aman</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>beacukairi punten ingin tanya kakkalau impor barang harga gt dari aliexpress apakah biaya bea cukai nya dibayar ke kurir pos indonesia saat antar barangnyaterimakasih</t>
+          <t>lightsout kok ribet bgt trs itu gmn je jadinya buyernya ngasih npwp ga kalo misal gaada npwp gmn btw pos itu pos indonesia kan ya sjsksjsj maap nanyanya kebanyakan</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>bekomingk baik kak paket tersebut sudah keluar gudang per tanggal oktober dan saat ini sedang proses distribusi oleh pt pos indonesia trims</t>
+          <t>adindundendon hi thanks for reaching out please be informed that upon arrival of this item into the destination country it will be handed over to pos indonesia for the mile end delivery please visit their website at for further tracking and assistance thanks mas</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>bertanyarl burung merpati pos indonesia</t>
+          <t>aeongieblue santai aja wkwk iya pos indonesia problemnya waktu itu tuh karna beda waktu sama buyer jadinya slr bangettt sedangkan aku dah nunggu lama terus diskusi bentar akhirnya setuju kirim perangko</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>bertanyarl dan beralih ke jasa pos indonesia</t>
+          <t>afifkuswanto hai kak atas resi tsb status sudah penetapan sppbmcp maka terkait pelunasan dan pengiriman barangnya silahkan hubungi kantor pos indonesia ya kak jun</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>bertanyarl gratis klo kamu bikin pas pilih kantornya pusat cepet aku gak sampe minggu dah jadi alamat penerima harus yg lengkap terdaftar di pos indonesia lengkap sama kode pos</t>
+          <t>andhitta betul kak paket sudah selesai dan rilis dari beacukai untuk pengirimannya silakan konfirmasi pos indonesia call center ya dnp</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>bertanyarl pernah dpt juga dri sms tapi namanya pos indonesia jadi nomor telepon kantor gituu</t>
+          <t>balvyhaddad ambil sim tilangan di kejaksaan via pos indonesia k sebulan setengah baru bisa balik pake calo k gak sampe jam kelar</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>bichbaekhyun ibuku pernah kirim dari cilacap ke jogja hari doang pake pos indonesia</t>
+          <t>bdngfess gosend pos indonesia jampt pakeeetttt</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>blackbeeaja nih ak list kak selain dr anteraja ada juga ninja express dhl pos indonesia rpx rex kirimaja sc cargo trilog wahana cargo itu baru sebagian masih byk lagi</t>
+          <t>beacukairi min mau nanya apakah barang saya dengan awb berikut uvuz sudah keluar dari bea diteruskan ke pos indonesia karena saya tracking di pos indonesia not found thnks</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>braddamamad doain aja biar terealisasigw sih pengennya gojek collabs lgsg sama pos indonesiabikin promo one day service semua jenis layanan pengiriman sampai dalam satu hari diseluruh indonesiabayangin kalau ini terealisasi</t>
+          <t>beilaiya ke pos indonesia</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>bravobeacukai dimana saya bisa hubungi pos indonesia nya ya</t>
+          <t>bertanyarl mungkin sedang dalam proses pengiriman tapi tidak ada update karena sudah diterima oleh expedisi yg ada diluar fyi gua ngirim dokumen ke amrik pake pos indonesia udah nyampe mingguan</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4256,12 +4256,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>bravobeacukai punten ingin tanya kakkalau impor barang harga gt dari aliexpress biaya bea cukai nya dibayar ke kurir pos indonesia saat antar barangnyaterimakasih</t>
+          <t>bertanyarl pos indonesia jualan sepatu</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>brklynbrnx paket lbde sudah rilis dan lunas pajak ya kak terkait pengirimannya silakan konfirmasi pos indonesia dnp</t>
+          <t>bravobeacukai halo kak kenapa hasil tracking saya diweb bea cukai dan diweb pos indonesia berbeda ya yang diweb pos indonesia tidak update yg diweb bea cukai update</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>cahayawibu harus via pos indonesia yaa ga bisa ekspedisi lain</t>
+          <t>buahhkhuldi di akhirat ada pos indonesia gak ya</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -4316,12 +4316,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ciggartzx hai kak untuk paket tersebut sudah rilis dari bea cukai per hari ini ya terkait proses pengiriman ke alamat penerima silakan langsung konfirmasi ke pihak pos indonesia nya ya kak boy</t>
+          <t>bundapiyoy pos indonesia</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>cnnindonesia kalo dokumen penting sama kirim ke ln ntah knp yakinnya ke pos indonesia</t>
+          <t>cavvalljs lewat pos indonesia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4356,12 +4356,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>convomfs pake pengiriman apa aja bisa kok waktu itu gua pake pos indonesia karena ada di kampus</t>
+          <t>collegemenfess temenku udh pada offline nder di pegadaian pos indonesia bank sumut dll</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>dagangkorea cek di website resmi pos korea di epost cj di web cj paling mudaj di track sm naver search tinggal milih kurirnya apa ems di pos indonesia jg bs</t>
+          <t>convomf iya soalnya dari indo ke taiwan pake pos indonesia</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>dagangkorea cek ongkir pos indonesia</t>
+          <t>cowomagang jangan pake lagi itu ekspedisi bro blacklist ajemending pake jne atau sicepat ajeatau pakai jasa pos indonesia sekalian</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>dagangkorea guys punyaku jg gini yg lama pihak dr bandara sm pos indonesia selaku yg terima barang krn sebelum masuk becuk barang diterima sm pos dulu punyaku jg ngestuck di jkt barusan aku hubungi becuk jawabannya gini</t>
+          <t>dagangkorea ems pos indonesia lama gabisa barang cairanbateraicargo banyak bgt lumayan cepet bisa barang berupa cairanbaterai kihno</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>dagangkr barang kamu apaan sampe butuh gitu trus kirim pake ekspedisi apa kalo pos indonesia aku kalo kirim ke ln berkilokilo invoice nya udah disediain kertas dari sana kita tinggal isi aja</t>
+          <t>dagangkr pakai pos indonesia disana banyak pilihan pengiriman nder kesana aja nanti diarahin</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>dagangkr coba ngechat di live chat web pos indonesia kenapa belum gerak</t>
+          <t>ess mau tanya akun pos indonesia dong pendengar buat menanyakan beberapa kejelasan paket saya terima kasih</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>dagangkr tanyain ke pihak pos indonesia dah aku pernah stuck seminggu tujuan ke jepang kebetulan ada kenalan mas kurir pos jadi aku tanya ke beliau trus sama beliau langsung dicek sore nya langsung gerak lagi</t>
+          <t>ehhadit kakak bisa memilih pengiriman via pos indonesia atau pengambilan ke satpas</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>dharmajitama oh ngakakaji mengirimkan surat melalui kantor pos indonesia</t>
+          <t>enhypenmart kalo manual coba tanya ke pos indonesia nya langsung aja</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>dikdiknur klo di pos indonesia mahal cb pake ekspedisi swasta lain ada tlxnusantara express</t>
+          <t>evillgurls aaakk pake pos indonesia kahhh kamuu</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4536,12 +4536,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>dikdiknur pake pos indonesiajasa ekspedisi swasta bisa mas</t>
+          <t>fauziwahyu silahakn hubungi pihak kantor pos indonesia ya kak jun</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>dikdiknur selama ini cm kena biaya ekspedisi cek aja di google cek tarif pos indonesia</t>
+          <t>ggsellfess pakai shopee ekspor atau pos indonesia shopee ekspor harus daftar dulu kalau udah daftar dan keterima bisa langsung masukin produk nanti harga produknya otomatis ditambah harga pajak dari shopee dan biaya lainnya di twt banyak kok jasa ekspor shopee</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>erickthohir bapak respectfully i ask for mins of your time when you go to the nearest kantor pos indonesia please open website pos indonesia check tarif rate from indonesia to any other country on any package check again the price at the counter posindonesia</t>
+          <t>glorylovejj sudah balik ke pos indonesia sajaamajukan bumn</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>erickthohir pt pos bagian dari sejarah kemerdekaan para pejuang am ptt merebut kantor pos dari penjajah dengan darah dan nyawatetapi miris kantor pos jakarta utara sekarang malah dibubarkan direktur utamanya sepertinya direksi dan komisaris ya tidak mengerti sejarah pos indonesia</t>
+          <t>gyucandie banget mau itu dari pihak seller atau buyer sama bikin parnolama pake pos indonesia aja kali ya</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>erickthohir setuju pak pada era di serba digital pos indonesia jangan mau kalah dan harus bisa bersaing dengan startup pengiriman di tanah air tumbuhkan niat kembangkan inovasi dan konsistensi kedepannya</t>
+          <t>hijinl banyak pos indonesia bgus kow plyanannya jg ok aq dl pmakai pos indonesia saat jualan online prnh ad brg customer jatuh djln trus hilangitu dganti ssuai hrga beli tanpa ribet ngurusnya jg gampang setiap ngirim mmg qt sdh dtanya brp hrga estimasi brgnya</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>erickthohir waktu tahun lagi apakah ada perubahan pada pt pos indonesia</t>
+          <t>hikari hai kak untuk paket dgn no resi tersebut sudah bisa konfirmasi langsung ke pihak pos indonesia ya kak terkait proses pengirimannya boy</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4656,12 +4656,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>evalezfr suvenir berbahan daun anyaman dan kayu susah masuk australia dan sudah dicoba bahkan di pos indonesia sendiri saat sortir tidak diijinkan kirim karena ada bahan daun dan kayu perlu ijin ekspor khusus untuk bahan itu</t>
+          <t>iremimwya lwt pos indonesia kak</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>fordy jika menggunakan jasa ems pos indonesia silakan konfirmasi ke call center kak karena mereka yg menentukan akan proses clearence ke kantor beacukai yg mana dnp</t>
+          <t>itskimchee kirim pake pos indonesia sabi sih</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>frghni pake pos indonesia keknya bisa</t>
+          <t>jajanbhlabels aku sampai saat ini aman di oren juga aktifin pos indonesia buat jaga semisal buyer gamau pake ekspedisi j</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ggsellfess kirim pake pos indonesia nder</t>
+          <t>jajanbhlabels pos indonesia murah kok</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ggsellfess packing biasa aja jgn kaya packing gendut kebanyakan bbw nanti jd keitungnya berat trus ongkirnya jg mahal kirim bisa ke pos indonesia aja pake rln biasanya lebih murah bisa di track juga</t>
+          <t>jogmfs di indomaret ada di pos indonesia malah cuma k doang</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>gldenvnte pake pos indonesia aja sya</t>
+          <t>jualanengene nih nder buntel aja yang rapet sama kardus tebel dan lakban warning kalau masih ilang emang ekspedisinya aja yang gak bener saranku co pakai pos indonesia aja kalau mau terjamin cepet juga kok</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>gongjyunim bisa dikonfirmasi saja melalui pos indonesia ya kak terkait pengiriman barangnya jun</t>
+          <t>kemenbumn jika pt telkom dan pt pos indonesia digabung lagi menjadi postel holding company seperti dulu mungkin telkom dan pos indonesia kembali kuat</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>hana hai kak untuk resi tsb jasa pengiriman nya atas nama pt dirgantara pos indonesia silahkan hubungi nomor yg tertera di untuk melakukan konfirmasi atas pengirimannya ya kak boy</t>
+          <t>kontolkoboi ayo kita buat setarap aplikasi chat karja anak bangsat yang didukung oleh kemenparekraf the true successor of departmen pariwisata pos dan telekomunikasi zaman engkong dan dimodali oleh pos indonesiademi perlawanan untuk menentang ketamakan dari kekaisaran zuckertut</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>hana silahkan dicoba kembali pihak pos indonesia ya kak dikarenakan apabila telah dilunasi barang berada dipihak pos untuk dilakukan pengiriman jun</t>
+          <t>korlantasid min kenapa dari kemarin tidak bisa memilih jenis pengiriman ya padahal steo nya sudah benar pilih pos indonesia tolong di bantu</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>heninuraeni tapirindunya anak manusia saat ini tidak sesakit rindunya anak manusia dieranya tapi kepercayaan tubuh dari buah rindu yang saling percayalahterima kasih pos indonesia selamat pagi heninuraeni tetap jaga rindu itu</t>
+          <t>lapakdeobi aku pernaah pernah by shopee pernah juga pake perangko kalo shopee kirim kayak biasa aja ke ekspedisi tapi kalo pakai perangko pos indonesia biasanya aku pake amplop sama ultrapro aja di tempel di kertas agak tebel gapakai bbw</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4856,12 +4856,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>hunyhindra aku terakhir belonjo neng tokped gawe pos indonesia olehe</t>
+          <t>lilacblue pakenya pos indonesia lagi wkwk sudah berniat pengen di modip biar bisa dipake ala ala outer wkwk</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4876,7 +4876,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>jajanbighit pakai pos indonesia kak</t>
+          <t>literarybase baru aja kemarin beli di sini aman kok jasa kurirnya pake pos indonesia</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4896,12 +4896,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>jajanbighit tnt dhl atau pos indonesialebih murah pake jenis dokumen nderr</t>
+          <t>marxkissme pajaknya bukan di web bookdepo tapi pas sampe sini ditagih pos indonesia</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>jenomacaroon cb cek di web pos indonesia deh</t>
+          <t>moanamenfess setahuku tuh ya ngirim aja nder lewat pos indonesia kan alamatnya ada di weverse terus bisanya ngirim ke satu member doang</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>jenomacaroon cb google deh mey tpi biasanya sih pake pos indonesia gt</t>
+          <t>msaiddidu pelayanan bumn yang menurut saya harus di benahi salah satunya pos indonesia sudah tertinggal jauh beribu kali overlap sama competitor gimana gak rugi coba</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>johnnycokr halo coba cek di web pos indonesia aja ka atau aku wktu itu telp langsung sih biar langsung di cek in gt negaranya bisa rln atau cuma qix dan bs tau ongkirnya jugaa</t>
+          <t>muhamma halo kak ini berlaku untuk seluruh indonesia ada satpas pilihan bisa memilih terdekat dan pengiriman via pos indonesia</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>kicciest ke pos indonesia kak daftarin dulu di webnya trus ntar bawa ke counternya</t>
+          <t>ntyongiee pos indonesia</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>loeynajaem pos indonesia deh</t>
+          <t>oneulmankeumeun eh atau ga kamu pake pos indonesia ajaaa katanya lebih aman daripada yg lainnya</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>mahendrasyathi gue pake pos indonesia waktu itu layanan ems express mail service</t>
+          <t>posindo paketku hilang dari jombang jawa timur ke sambeng lamongan jawa timur penerima juga tidak merasa menerima barang dari posbagaimana ini pak pos status paket sudah diterimatolong cari barang saya yang sudah hilang pak pos karena itu barang harganya juga tidak murah</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>maigoninattaa status atas resi tsb barang sudah dipihak pos ya kak maka terkait pengiriman barangnya silahkan konfirmasi pos indonesia jun</t>
+          <t>posindonesia dear csmohon infonya paket saya yg saya kirim ke luar negeriknp kembali lagi saya pake jasa pos ekspor dengan no barcode ccid mksh</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>mongguubear hai kak untuk resi tsb statusnya sudah rilis dari bea cukai per tgl ya kak terkait pembayaran pajak dan proses pengiriman nya silakan konfirmasi ke pos indonesia langsung ya kak boy</t>
+          <t>posindonesia pmohon informasinya kenapa paket ini masih belum sampaipadahal dari tgl posisi sudah ada di kprk tasikmalaya</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5076,12 +5076,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mongguubear untuk call center pos indonesia ada di nomor ya kak boy</t>
+          <t>posindonesia pak pos yang baik hati mohon infonya biaya admin dan handling paket saya resi no einl kok naik bnyk yasebelumnya biaya admin dan handling paket berkisar rb skrg kenanya sdh diatas rb wowww banget inimohon updatenya ya mimin pos indonesia</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>narkosun sudah lama mikir ini kenapa pos indonesia ga bikin gebrakan biar bersaing sama jn cepat dll</t>
+          <t>posindonesia bisa ga ya kirim kopi bag bijian k ostrali</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>negativisme terobosan baru dari pt pos indonesia</t>
+          <t>posindonesia bisa kirim coffe bean bag</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5136,12 +5136,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>null mnc group kerja sama dengan pos indonesia hary tanoesoedibjo kolaborasi yang a</t>
+          <t>posindonesia bulan lalu saya beli baju dari aliexpress dgn harga yang sama dikenai pajak rb sekarang segitu</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5156,12 +5156,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>pajoebak hai kak untuk paket dgn no resi tsb statusnya sudah rilis dari bea cukai per tgl ya kak terkait pembayaran pajak dan proses pengiriman nya silakan konfirmasi ke pos indonesia langsung ya kak boy</t>
+          <t>posindonesia dear admin tolong cek dm</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>patoradoz bisa kirim pos indonesia</t>
+          <t>posindonesia gimana kabarnya ya paket saya dengan no resiuvuzuvuzudah dari bulan sampe skrg ga ada kabar nya pantes pos skrg kalah saing sama ekspedisi sebelah</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>petaaja hai veetha menjawab pertanyaanmu jika sebelum melakukan pembayaran kamu memilih tombol pengiriman tbpkp fisiki ke domisilimu maka dokumen tersebut akan dikirimkan melalui pt pos indonesia dalam estimasi hari kerja terima kash</t>
+          <t>posindonesia hallo selamat sorekenapa waktu download annual report pt pos indonesia persero dan annual report pt pos indonesia persero gabisa ya kak malah waktu di klik kembali ke berandatrimakasih</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>posindonesia hi selamat pagi pos indonesia boleh tau kah berapa banyak kantor cabang utama pt pos indonesia dan kalau boleh disebutkan apa saja ya</t>
+          <t>posindonesia halo admin saya mau tanya sekrang pelayanan kirim paket internasional ada apa saja ya di pos indonesia</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>posindonesia min apabila kirim paket sample berupa liquid shampoo parfum ke thailand apakah perlu print msds kalo iya brp rangkap dan apakah perlu isi custom declaration sistem dan custom declaration itu diisi ketika barangnya sdh diserahkan ke pos indonesia kah</t>
+          <t>posindonesia halo admin saya ada tagihan pospay via sms tapi terbayar lebih sudah diemail buktinya kok ga direspon ya</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>posindonesia min untuk delivery center pos indonesia tangsel dimana ya saya mau cek pin adsense saya udah dateng apa blm</t>
+          <t>posindonesia halo min mau minta tolong utk penghapusantutup akun pospay dong karna di aplikasi tidak ada menufitur hapus akunnya terimakasih</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>punyaasadhy hai adhy terima kasih telah melakukan pembayaran stnk terkait dgn tbpkp pengiriman akn dilakukan oleh pt pos indonesia maksimal hari kerja mohon kesediaannya utk menunggu apabila mengalami kendala jgn ragu utk menghubungi tim cs melalui live chat di website kami</t>
+          <t>posindonesia halo min boleh tolong bantu cek ini ga eeid barang return dari china uda stuck dari bulan juni tolong segera diproses ke surabaya yaaa</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>pvoof tbh waktu itu aku mencoba ikhlas aja cha sumpah pagi kuliah siang nyempetin penelitian waktu itu aku keterima di pos indonesia sorenya balik ke kampus buat kelas terus malamnya ngerjain laporan dan tugas lainnya twas a hell tapi benerbener ikhlas dan</t>
+          <t>posindonesia halo tolong dibantu ya bgmn status barang saya resi lpsg trims</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>rizal hai kak untuk kurir tersebut adalah tiki pos indonesia dan wahana selengkapnya pada link ya kak</t>
+          <t>posindonesia info loker dong kak</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ryawiedy betul mdhan ada kemudahan unt memperlancar usaha kesananya ini info aja kmrn anakku berencana kirim bendera ke temannya yg beratnya kurleb gr lwt pos indonesia hrs bayar rb akhirnya gk jadi dikirim tp mgkn ada jalur pengiriman yg lain yg lbh murah idk</t>
+          <t>posindonesia is a fucking joke jangan pake service ini lagi gak professional cape ati iya moga moga lo bangkrut sih</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>sabud ketik nama kota pada kolom pencarian satpas jika satpas yang anda inginkan tidak ada dalam daftar di atas anda dapat memilih salah satu satpas di atas dan memilih metode pengiriman pos indonesia agar sim dikirim ke tempat andaterimakasih</t>
+          <t>posindonesia is collaborating with a battery swap enterprise to present smoot electric motorcycles for rose orange female couriers learn more indonesianway inidiplomasi</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5376,12 +5376,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>sanhwacarts ini direct shipping pake pos indonesia</t>
+          <t>posindonesia kak bisa minta list tarif ems</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5396,12 +5396,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>sellkpopfess ini klo ngirim ke pos indonesia ya brrti tokoku juga dpt ginian tpi ku abaikan krna ga ngerti</t>
+          <t>posindonesia kalo bikin system payment baru pastiin dulu bugs nya udah di test sampai habis bapak ibu terus pakai lah payment gateway yang credible jangan sokan direct ke bank bumn jadi nya error mulu orang mau bayar jadi ribet</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sellkpopfess kirim lgsg di pos indonesia pake ems bisa</t>
+          <t>posindonesia kirim paket pake pos pake alamat kantor malah keterangan rumah kosong gimana sih ini minta nomor pos cabang sofifi di agen malah gak punya lah nasib paket saya gimana</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>sugarfayy waduh udh agak lupa dlu ada brg yg free shipping ka jdi bnr ga byr gitu trus tax nya byr sama kurir pos indonesia biasanya pas ngater paket lgsg di tagih gituuu</t>
+          <t>posindonesia kiriman lpsg sudah sampai apa belum kena berapa ongkirnya</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>tanwxi hai kak untuk paket tsb silakan konfirmasi ke pihak pos indonesia di nomor call center ya kak boy</t>
+          <t>posindonesia klo mau komplaine kemana ini saya dm g direspon</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>timpalbali lewat pos nder pake em kalo harga agak naik turun tergantung kurs cari aja di webnya ems pos indonesia</t>
+          <t>posindonesia mau bayar pajak ga bisa bisa gimana dah</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5496,12 +5496,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>timpalbali pos indonesia coba</t>
+          <t>posindonesia mau nanya dongkok beaya dari posyang dibebankan penerimasekarang mahal yaapakah ada peningkatan layanan atau gimana yasoale yang diberikan juga samaplastik ndak gunaama kerta tagihan hwhee</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5516,12 +5516,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>turunkankodok paket cfau dikembalikan karena penagihan sppbmcp batal hal tsb biasa terjadi karena saat pengantaran penerima tidak ada ditempat kak silakan konfirmasi kembali ke pos indonesia call center ya dnp</t>
+          <t>posindonesia mau nanya bisa ngirim surat jemput kesini</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>uchiiidagang halo kak paket egkr belum diproses ke beacukai kak dan jika dicek pada web paket belum tiba di indonesia silakan konfirmasi pos indonesia call center ya untuk detailnya dnp</t>
+          <t>posindonesia mau tanya status awb dong</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>whatssipp kirim surat pake pos indonesia kalo musim kemarau pake merpati sih biar cepet</t>
+          <t>posindonesia min baca dm ya</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5576,12 +5576,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>xaeyongf kemaren aku beli album hellfut dr sm store k tax dan ongkir kerumah dr pos indonesia wkwkwkw jd sekitaram k klo album tax ship harusnya sih</t>
+          <t>posindonesia min ebkr paket dengan resi ini kok ganisa di track ya</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>yradianto harga pengiriman dengan pos indonesia masih lebih tinggi dibandingkan dgn ekspedisi swasta</t>
+          <t>posindonesia mohon infonya</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5616,12 +5616,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>zarazettirazr yg pasti ke aussie lbh mahal lah uni dr jkt ke timika papua kisaran k kg itu via pos indonesia</t>
+          <t>posindonesia nih cs lo juga diurusin kalo bales imprit belom kalo udh tau salah diem aja udah gak even dibales dasar tolol bgini nih pelayanan nya bener mengecewakan</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>askrl gaes pos indonesia hari minggu tetep ada pengiriman ngga</t>
+          <t>posindonesia paket kilat kirim jumat sampe sekarang gak nyampe tuh kak gimana</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>rumah dekat dengan jne tiki antaraja pos indonesia dan jampt rumah perbatasan dengan depok ada pengalaman untuk packing masih baru di dunia perpackingan</t>
+          <t>posindonesia pin google adsense belum sampe udah hampir sebulanbegitu dicek ke kantornya katanya gaada juga padahal google bilang estimasi minggumohon bantuannya terima kasih</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>shipped out from ktownuresi udah diinfo ya silahkan track sendiri di atau web pos indonesia</t>
+          <t>posindonesia pos indo tolong ya kalo kerja yg beres saya kirim paket dr juli ke ln sesuai tracking kalian paket sudah jalan dr tanjung priuk july ternyata baru jalan september telat bulan ga ada pemberitahuan kalo saya ga ubrak abrik kalian diem aja kaya patung</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>kali hacktoberfest kaos nyangkut di pos indonesia</t>
+          <t>posindonesia saya mau bayar invoice via va mandiri kenapa diblokir ya min</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>tibatiba kamu perlu uang tunai kamu tidak perlu khawatir selain di kantorpos pos indonesia telah bekerja sama dengan indomaret dan atm bca untuk penarikan uang tunai dari saldo rekening kamupospay</t>
+          <t>posindonesia saya mau tanya paket kok tdk bs dilacak di web tracking ya</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ada beberapa hal yang harus kalian ingat sudah pasti menggunakan layanan ekspedisi pos indonesia tidak perlu mencantumkan nama minerva kalau kalian mengirimkan barang khusus atau penting silahkan dm mine melalui twitter atau discord</t>
+          <t>posindonesia selamat siang ka saya kirim barang hampir satu bulan tak kunjung sampai</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5756,12 +5756,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ada tempat baru nih jangan cuma numpang nongkrong doangposblocmblocspaceposindonesiagedungfilatelipasarbaruradarruangriangcreativehubbumnerickthohirruangkreatifumkmentrepreneurekonomikreatifcreativeeconomyekraf</t>
+          <t>posindonesia selamat sore saya mau menanyakan paket dengan resi p kok belum sampai saya kirim dari tanggal saya tracking terakhir update tgl tapi gak jalan jalan</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>amsyonglihat total tagihan bea cukai di web kena k pas sampe rumah jadi k pos indonesia memang beda</t>
+          <t>posindonesia siang maaf kak bisa dibantu pengurusan pos pay dicoba login ket user tidak ditemukan</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>aplikasi pospay telah melengkapi jaringan outlet fisik pt pos indonesia persero yang saat ini tersebar sebanyak lebih dari titik pakaipospay</t>
+          <t>posindonesia syarat pick up nya apa kak</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5816,12 +5816,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>asabri kancab kupang bersama pengurus persatuan purnawirawan polri dan pt pos indonesia melaksanakan kegiatan layanan kunjungan penerima pensiun lkpp tw iii tahun pada kamisjumat september di wilayah kab kupang dan kab timor tengah selatankegiatanasabri</t>
+          <t>posindonesia tolong di respon dm saya</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>asikkk banget kan bisa dapet bonus saldo ribu plus pulsa ribu gampang banget caranya cuma install dan aktifkan aplikasi pospay pospayofficial pt pos indonesia</t>
+          <t>posindonesia tolong dong paket sy estimasi hr kok blm nyampai</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>asikkk banget kan bisa dapet bonus saldo ribu plus pulsa ribu gampang banget caranya cuma install dan aktifkan aplikasi pospay pospayofficial pt pos indonesia</t>
+          <t>posindonesia tolong pak pos paketnya ga sampe nih</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>asikkk banget kan bisa dapet bonus saldo ribu plus pulsa ribu gampang banget caranya cuma install dan aktifkan aplikasi pospay pospayofficial pt pos indonesia</t>
+          <t>posindonesia tolong paket saya ada dimana ini status dr tgl nov gak berubah nomer saya dm</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>asikkk banget kan bisa dapet bonus saldo ribu plus pulsa ribu gampang banget caranya cuma install dan aktifkan aplikasi pospay pospayofficial pt pos indonesia</t>
+          <t>posindonesia udh isinya urgentknp saya kirim dr julykrn saya tau kalian byk birokrasi tai delay bisa br sampe bulan kemudianini jalannya aja udh telat sgitu lama gak tanggung jawab maap doang maap kalian ga bikin barang saya nyampe woy kerja yg bener lah pake otak coba</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>asikkk yuk belanja batik di hari batik nasional bayarnya pake pospay ngirimnya pake pos indonesia pospayofficial</t>
+          <t>posindonesia untuk pemateraian kemudian di kantor pos lapangan banteng buka sampai jam berapa ya</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5936,12 +5936,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>asikkk yuk belanja batik di hari batik nasional bayarnya pake pospay ngirimnya pake pos indonesia pospayofficial</t>
+          <t>prastow kayaknya itu biaya pengiriman sepeda motor via pos indonesia bukan bayar pajak motor</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>asikkk yuk belanja batik di hari batik nasional bayarnya pake pospay ngirimnya pake pos indonesia pospayofficial</t>
+          <t>pxtriming tapi jujur pos indonesia kata mamaku mantep banget makassarsurabaya hari doang malah sksksksk</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>bandung pt pos indonesia persero dalam memperingati hari pos sedunia world post day pada oktober memberikan diskon layanan kurir kilat khusus hingga persen</t>
+          <t>skzsellstuff ke pos indonesia bisa kok kl aku biasa blgnya mau kirim dokumen pake rln nanti tinggal isi form form aja deh</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>bayar tagihan kamukirim paket kamulebih mudah dengan aplikasi dari layanan pos indonesiakantorpos karangsatria juga melayani pengiriman paket kamu tagihan kamu dan pembelian materai dan posindonesia posbisa</t>
+          <t>stayoongiie yayas kmrn pake pos indonesia kak amannnn dan cepet lagi</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>bekas gedung filateli jakarta milik pt pos indonesia di pasar baru jakarta pusat telah selesai direnovasi menjadi pos bloc jakarta yakni ruang kreatif publik untuk tempat nongkrong baru bagi semua kalangan</t>
+          <t>submeridian posindogtgtgtgtgtgt</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>berdasarkan peraturan menteri keuangan pmk nomor tahun penjualan meterai tempel dilakukan oleh pt pos indonesia selain itu ia juga bertugas untuk mendistribusikan meterai tempel selama ini yang beredar di pertokoan</t>
+          <t>suprabaadi besok lagi mau pake pos indonesia aja lah</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>betul barang dibatasi bisa tapi harus ada ijin khusus atau sertifikasi material dicantumkan dilabel produk makanya aku senang pos indonesia ketat karena kalo dilolosinpun akan ketahan pas masuk australi dan resiko di kirim balik barang dilarang ikut aturan negara tujuan</t>
+          <t>suryaeka hai kak atas nomor resi tsb menggunakan pos indonesia ya kak maka silahkan untuk menghubungi pihak pos indonesia jun</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>bumn emang selalu memberikan inovasi terbarunya terbukti dengan hadirnya pospay dari pos indonesia ini membuat hidup kita makin dimudahkan pakaipospay</t>
+          <t>takamitsaya ketan yg kek nasi ya nasi ketan kalau disini aamiin yaa kalau minggu tuh banyak bgt yg jualan selain gazibu ada di taman lansia atau taman cilaki deket gedung sate sama museum pos indonesia situ jajanan di bandung mah pabalatak apalagi daerah du belakang unpad du</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6096,12 +6096,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>bumn pos indonesia membuka lowongan kerja posisi oranger berikut persyaratan yang harus dipenuhi apabila tertarik untuk mendaftar</t>
+          <t>txtdridoi potret bokap gw yg kabaran sebulan sekali lewat pos indonesia tapi ttp bisa ngehasilin gw</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>vanesavanillaaa kalo di kantor pos indonesiapaling jadi b ajawkwkwk</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>vyragami how do you know that its stuck at custom vyra for holoen mo anniv merch pos indonesia just delivered the keychains directly to my housei too am waiting for inas bday merch but so far i have gotten no update from geekjack</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6156,12 +6156,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>vyragami reflecting from my holoen mo anniv shipment i estimate that it would take another weeks till pos indonesia send the goods</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>wintermous pos indonesia wkwkkwkw</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>yogihutama pos indonesia sudah tidak aktif di twittersilakan hubungi mereka lewat facebook atau instagram bisa juga lewat chat langsung di situs resmi mereka</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6216,12 +6216,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>x beli handphone x beli mirroless semua pakai sicepat so far gak ada masalah utuh selamat jd emang bisa disimpulkan itu ulah oknum jangankan ekspedisi swasta pos indonesia yang bumn aja pernah bermasalah</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6236,12 +6236,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>fakta penyesuaian tarif kirim barang impor pos indonesia</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>hari lagi yaitu pada tanggal november kami agen pos dwiwarna akan hadir di wilayah sahabat pos di jl dwiwarna raya no lho posindonesia agenpos dwiwarna agenposdwiwarna posdwiwarna bumnuntukindonesia</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>sicepat dari paket baru sampe dan aman jne dari paket belum ada yang sampe semoga semuanya aman btw utk posindonesia terimakasih buat customer service kantor pos batam sangat membantu sekali layanan whatsappnya dan kurirnya juga ramah</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>admin minta tolong ini ngirim paket dari kediri ke nganjuk aja kok sampe nyasar ke surabaya posindonesia minta tolong dibantu solusinya kenapa sampe nyasar nyasar</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -6316,12 +6316,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>aplikasi pospay dari pos indonesia posindonesia berhasil menembus target juta pengguna</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6336,12 +6336,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>atzm aku mau trade pc ww gitu kalo maukirim pc ke eropa tracking pake posindo udah bisa blm yaa klo blm bisa ada ygtau pake apa kirimnya tia</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6356,12 +6356,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>ayo daftarpt pos indonesia buka lowongan kerja baru bagi lulusan ssegera cek syarat dan cara daftar lewat tribunnews</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh</t>
+          <t>bantuan jaring penahan sampah diberikan oleh pt pos indonesia cabang kota jayapura sedangkan bantuan mesin motor diberikan oleh bank bni cabang jayapura sebagai wujud tanggung jawab sosial atau corporate social responsibility csr basmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>bantuan jaring penahan sampah dan batuan mesin motor untuk kampung nelayan diberikan oleh pt pos indonesia cabang kota jayapura dan bank bni cabang jayapura basmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>bantuan jaring penahanan sampah dan bantuan mesin motor untuk kampung nelayan diberikan oleh pt pos indonesia cabang kota jayapura dan bank bni cabang jayapura sebagai wujud tanggung jawab sosial basmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>bantuan jarungan penahan sampah dan bantuan mesin motor untuk kampung nelayan diberikan ptpos indonesia dan bni sebagai wujud tanggung jawab csrbasmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6456,12 +6456,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>belakangan ini aku kirim paket pake pos indonesia karna takut sama ekspedisi lain</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -6476,12 +6476,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>beli barang dari australi tapi nomor resi pretransitnya gak bisa dilacak di pos indonesia mending hubungin tokonya apa tunggu lebih lama aja ya siapa tau ada yang pernah belanja langsung dari luar negeri aku gak ngerti soalnya</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh</t>
+          <t>berkali bayar pajak pake va tp ga bisa krn diblokir lalu bayar di kantor pos nov di sistem ditulis sdh lunas tp barang ga segera dikirimbarusan telp ke pos indonesia amp baru akan dibuat laporan nanti harus telpon lg utk nanya ttg kepastian pengiriman barang</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6516,12 +6516,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrg udah punya ewallet sendiri nih guys yuk jangan lupa ya selalu transaksi jadi lebih mudah pakaipospay buat bayar apa aja jadi lebih gampang deh transaksi jadi lebih mudah pakaipospay</t>
+          <t>btw guiz pekanbaru riau tuh masih terjangkau sama jnt jne sicepat anteraja posindonesia yaah packingnya jg pasti aman kalo kendalanya krn dom aku sedih bgt ke sulawesi pun pernah ku tempuh demi pc</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -6536,7 +6536,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>bumn pos indonesia skrng ada ewallet sendiri nih guys yuk jangan lupa ya selalu pakaipospay buat bayar apa aja jadi lebih gampang deh pakaipospay</t>
+          <t>cara cek ongkir jampt jne tiki sicepat anteraja dan pos indonesiainilahcom inilahdotcom</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6556,12 +6556,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>by pmikabsemarang stokdarah selasa sept pkl wibmobile unitselasa sept pt pos indonesia ungaranpkl wibinfo layanan darah pasien jamdonor darah di pmi pkl wibvisit donordong</t>
+          <t>cari kode pos di website resmi posindonesia gak ketemu</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>caranya gimanacaranya kalian bungkus hadiah kalian dengan rapi dan tulis alamat di bawah inipo box nkm jakarta pusat bawa surat kalian ke kantor pos terdekat dan kirimkan ingat ya hanya menggunakan jasa layanan pos indonesia saja tidak bisa dengan ekspedisi lain</t>
+          <t>cek dm min posindonesia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -6596,12 +6596,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>dalam acara itu direktur utama pos indonesia faizal rochmad djoemadi menyampaikan laporan umum tentang beragam layanan digital yang telah dikembangkan oleh pos indonesia seperti posaja pospay dan berbagai layanan lainnya pakaipospay</t>
+          <t>dah seminggu belom beres aja urusan ma kantor pos pos indonesia bener ketinggalan jauh dalam urusan sistem amp pelayanan</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>dalam rangka menyambut maulid nabi h dan meneladani rasullulah baznas bersama pt pos indonesia bekerjasama untuk memberikan literasi terkait fiqih zakat penghasilan yang juga dapat mengurangi pajak muzaki yang menunaikannya</t>
+          <t>dear pos indonesia kalo sistem pos ekspor dialihin ke jasa kurir lain ngomong kek kasih tau no resi barunya</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -6636,12 +6636,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>dalam rangka menyambut maulid nabi h dan meneladani rasullulah baznas bersama pt pos indonesia bekerjasama untuk memberikan literasi terkait fiqih zakat penghasilan yang juga dapat mengurangi pajak muzaki yang menunaikannya</t>
+          <t>di tengah transaksi digital yang semakin digandrungi masyarakat pt pos indonesia persero menghadirkan aplikasi layanan keuangan digital yang dinamakan dengan pospay berbasis sitem operasi android dan ios</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>dan akhirnya pt pos indonesia naik level tanpa diduga ga jadul deh pakaipospay</t>
+          <t>dia kerja di pos indonesia</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>dengan didampingi oleh direktur utama pt pos indonesia persero faizal rochmad djoemadi direktur utama pt pos properti indonesia handriani tjatur setijowati dan ceo pos bloc jakarta jimmy saputro beserta jajarannya masingmasing</t>
+          <t>ditengah issue gini kayaknya kalau pos indonesia muncul dg inovasi yang bisa jamin kemaanan barang pelanggan keren sih</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>dihadiri juga oleh perwakilan balai pom balikpapan amp pt pos indonesia persero balikpapan pemusnahan dilakukan terhadap barang eks bea amp cukai berupa mmea minuman mengandung etil alkohol hasil tembakau dalam bentuk rokok serta barang lartas larangan amp pembatasan lainnya</t>
+          <t>dokumen tbpkp yang telah diperbaharui akan dikirimkan melalui jasa pengiriman pt pos indonesiajadilebihaman jadilebihmudah bayarpajakpakaisignal samsatdigitalnasional</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>djp akan melakukan pengawasan terhadap meterai tempel dan meterai elektronik yang dijual dan didistribusikan oleh pt pos indonesia dan perum peruri seiring dengan diterbitkannya pmk no intip beritanya di sini djp ditjenpajak meterai pajak</t>
+          <t>dugaan korupsi yang melibatkan anak usaha pt pos indonesia</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>duet dengan pt pos indonesia ribu ektp antar alamat sudah mendarat di rumahpenerima</t>
+          <t>duh gimana ini posindonesia apakah terima barang dari luar negeri perlu biaya lagi padahal si pengirim sudah bayar mahal</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -6756,12 +6756,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>dulu pas pkl di pt pos indonesia aku punya kenalan dia rekomendasikan lagu ini dan hampir setiap hari aku putar sekarang setiap kali dengerin lagu inget waktu itu jadi kangen dan pengen tanya ke dia</t>
+          <t>dus ke my universe cd coldplay udah di solo ya tapi belum di rumahku dus alias trakir belum keluar pajaknyaini udah keluar pajak udah aku bayar juga billingnyaudah konfrim pos indonesia juga cuma tinggal nunggu pos aja</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ems pos indonesia udah bisa belum ya</t>
+          <t>ekspedisi emg udah paling bener kalo gak jnetikipos indonesia</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -6796,12 +6796,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ewallet pospay milik pt pos indonesia nggak kayak toko sebelah yg ngosan karena peraturan ojk barugtgt semua ewallet harus ada payung institusi keuangan yg sah</t>
+          <t>fix aku pakai pos indonesia aja udahhh gak berani lagi ngirim paket lewat jnt jne sama sicepat</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6816,12 +6816,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>gandeng mnc pt pos indonesia kembangkan layanan setortunai</t>
+          <t>gabisa login ematerai padahal msh ada saldo materai rebu disana aaa ga ikhlas posindonesia gabisa masukin otp gaada sms atau email gimana iniiii</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>gandeng pos indonesia mnc bank sediakan setortarik tunai tanpa kartu</t>
+          <t>gandeng swap energi pos indonesia hadirkan motor listrik untuk kurir perempuan</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>gandeng pos indonesia mnc ecommerce genjot bisnis logistik</t>
+          <t>gara ada isu paket diboboldi event ini karena kebetulan isinya barang perbucinan semua jadi coba semua ekspedisi yang adaso far yang udah dateng pos indonesia aman shopee express aman id express aman jampt dr baru sampe nya aman</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -6876,12 +6876,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>gandeng pos indonesia mnc group jangkau layanan digital perbankan dan ecommerce hingga pelosok negeri sindonews bukanberitabiasa</t>
+          <t>geneask kalo aku mau album ku dikirim pake pos indonesia itu nanti dianter ke ruma yang ambil ke kantornya sama ongkirnya kira kira sama gk kyak ekspedisi biasanya</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -6896,12 +6896,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>gila apaapaan pos indonesia skearang ada handling fee nambah ribu sendiri selain tambahan ribu kayak biasanya dianter ke rumah aja ga pernah gileeee double bayar kalo mesti ambil sendiri</t>
+          <t>green energy oranger mawar pos indonesia bakal gunakan motor listrik</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>gubernur jenderal imhoff dan riwayat awal pos indonesia</t>
+          <t>guys pacarku di us minta aku kirimin dia baju batik kirim paket gini ke luar negri pake pos indonesia bisa kan ya sekalian mau kirim parfum hmns yang farhampton juga yay or nay tanyarl</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>gubernur jenderal imhoff dan riwayat awal pos indonesia</t>
+          <t>habis ini pada pake pos indonesia mahal dan agak lama tapi jos gadis pasti nyampe di alamat kalian karena pak pos udah ngerti daerah kalian plus penanda rumah oh ya jangan lupa wahana sama dakota logistik pasti sampe ga ada yg jebol</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -6956,12 +6956,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>gw baca bolak balik tu surat dan tersenyum puas yes ill send it of course by the only pos indonesia donk pastinya cuma itu yang gw tau saat itu karena gw mo kirim surat ke ln yess info alamat rumah idolaque jelas tau donk ah fans bered gitu loh fenomenabtsbts</t>
+          <t>hah orang kota yang kerja di company gede yang suka kirimkirim dokumen puluhan juta ga tau kalo pos indonesia bisa buat kirim dokumen lembaga sekelas ktki kemenkes aja ngirim dokumen seharga nyawa lewat pos</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>gw seneng bgt anjir dikasi whatsapp staff pos indonesia jd gaperlu bolak balik kalo mau nanya</t>
+          <t>hai posindonesia apakah paket lpsg bisa di ambil di kantor pos besar soalnya saya butuh barangnya untuk cepat sampai</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>hai sobatkampusorangesidang terbuka senat politeknik pos indonesia live on youtube</t>
+          <t>hai posindonesia gimana ini paket saya dr ln ko muter rutenya sudah sampai bogor ko balik lagi ke jakarta</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7016,7 +7016,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>haloo sobatrbpn hari ini pt pos indonesia kota sawahlunto melakukan kunjungan ke kantor pertanahan kab sijunjung guna mengajukan penawaran kerjasama terkait pendistribusian kiriman jasa kurir logistik serta jasa keuangan dimana tawaran tersebut dapat memudahkan instansi</t>
+          <t>halo posindo aku kirim surat tercatat dengan tembusan pada tanggal nov melalui kantor pos makassar hertadning tp hingga saat ini blm ada pemberitahuan baik sms maupun wa bahwa surat tsb telah sampaiditerima oleh yg di tuju nih salah satu resix</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>haloo ada yang pernah kirim pke pos indonesia gak aku mau nanya nanyaaa</t>
+          <t>halo sobatsinergi bumn yang saat ini terjalin antara pt pos dan telkom harapannya dapat terus meningkatkan digitalisasi dan kemudahan bagi masyarakataktivitastanpabatasinternetnyaindonesiaposindonesiaposjawabaratsobatindihomeindihometelkomjabar</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -7056,12 +7056,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>harbolnas pos indonesia kasih diskon ongkir hingga sindonews bukanberitabiasa</t>
+          <t>harusnya pelayanan publik lewat online aja trus hasilnya diantar kurir pos indonesia jadi memangkas birokrasi dan waktu ya kan</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -7076,12 +7076,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>hari pos sedunia pos indonesia beri diskon kilat khusus hingga persen antara news jawa barat</t>
+          <t>hkn ke di rsud dr m ashari di hadiri oleh bapak bupati pemalangseremoni mou disdukcapil dan pos indonesiapemberian penghargaan kepada karyawan rsudkunjungi kami juga di ig rsudasharipmltwitter rsudasharipmlfacebook rsud dr m ashari pemalang</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>hari pos sedunia pos indonesia kasih diskon persen paket kilat</t>
+          <t>hoax waspadai penipuan mengatasnamakan pospay dan pos indonesia</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>hayo pasti udah pada gak sabar jalanjalan naikdamriaja kan sobat semuanya siapa nih yang rumahnya dekat dengan pos indonesiakomen yuk dan kodein temanmu yang mau diajak jalanjalan sekarang sumber instagram pt damri damriapps ayonaikdamri takesyoueverywhere</t>
+          <t>idr k belum termasuk ongkirpengiriman kantor pos indonesia what will u get stand kayu ganjelan yg pasti bkn ganjelan hati yaw freebies stickers packing yg amanhow to orderdmwa</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>the day of the republic of indonesia telecommunications telecommunications post is often referred to as pt pos indonesia the flow of telephone and telegraph technology developments that entered indonesia also changed the postal</t>
+          <t>im at posindonesia in tasikmalaya jawa barat</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>huaaa bacaan masa kecil ku dulu jaman sd sering langganan sama abang koran majalah keliling tiap rabukamis dianter paling seneng bgt kalo edisi bobo ada hadiah nya pernah juga ngirim gambar sampe rela datengin kantor pos indonesia sama mama tapi ga pernah menang</t>
+          <t>im too tired to even say anything anymore fuck posindo and their incompetent agents i wont be using their ems services anymore from now on this is just ridiculous</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ia berharap bangunan bersejarah tersebut bisa hidup kembali dan mendekatkan lebih banyak anak muda dengan pos indonesia</t>
+          <t>in conclusion pos indonesia amanah dan safe sekali kekurangannya kalau pakai stamped nggatau nyampe kapan dan ngga cocok untuk orang ngga sabaran kaya gw wkwk tapi bisa banget pakai pos kilat dan cuma k tapi ngga freeong tt</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -7196,7 +7196,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>if you guys curious about nacifc indonesian store can shipping ww or not the answer is no so if u need my help i can purchase the products thru my acc shopee then ill send the products to you with pos indonesia</t>
+          <t>in pos indonesia i trust namanama orang yg ngurus paket ku ada semua dan ini detail banget</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>in kokas district fakfak regency west papua province kode pos indonesia freewestpapua</t>
+          <t>info loker bumn pt pos indonesia persero buka lowongan kerja minimal sma november info loker terbaru dari pt pos indonesia persero yang membuka lowongan kerja pada november bagi lulusan sma atau slta loker lowongankerja</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>in teluk etna district kaimana regency west papua province kode pos indonesia freewestpapua</t>
+          <t>inovasi siaciaksistem akta cerai antar ke alamatdunsanak kami tacinto mari manfaatkaninovasi kemudahan pelayanan kami inovasi ini merupakan kolaborasi kami denganpt pos indonesia solok inovasi ini kami hadirkan untuk mendekatkan pengadilan ag</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7256,12 +7256,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>in teluk wondama regency west papua province kode pos indonesia freewestpapua</t>
+          <t>iseng sekalikali cobain layanan pos indonesia untuk bb ternyata biaya value added servicesnya bisa lebih mahal jauh dibanding ongkos kirimnya</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ini abang kurir pos indonesia</t>
+          <t>isuisu gini kan lagi banyak ya keknya lebih seru kalau pos indonesia muncul</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7296,12 +7296,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>ini akun pos indonesia kok ya terakhir aktif tgl apr ada yang kerja di pos ga ya yang bisa gue tanya</t>
+          <t>kak mau tanya no awb ini egkr udah di serahkan ke pos indonesia masih di pihak becuk ya dari kemarin ga gerak gerak soalnya</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7316,12 +7316,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>itu yang ada pilar ada tralis besinya museum pos indonesia bukan sih serem bgt kalau syuting di sana</t>
+          <t>kalo kaya gini terus mau pake pos indonesia aja gpp ga ada gratis ongkir yang penting sampe ke rumah</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>jaman makin modern dan pos indonesia sekarang juga makin maju gak zaman lagi berkirim surat kini saatnya pakaipospay dan rasakan banyak manfaatnya</t>
+          <t>kantorpos karangsatria buka setiap hari pelayanan jam mulai jam pagi sd malam pelayanan mulai dari pembayaran tagihan penjualan materaipengiriman paket amp dokumen kilatexpressekonomi posbisa posindonesia poskilat express</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>jog ada yang tau akun twt ekspedisi pos indonesia</t>
+          <t>kantorpos karangsatriatetap pelayanan jam mulai jam pagi sd malamkirim express hari sampai bisa lohpengiriman kilat khusus dan ekonomi keseluruh indonesia bisabeli materai dan pembayaranpembayaran juga bisa posindonesia posbisa</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>jujur capek banget di daerahku gaad pos indonesia</t>
+          <t>kayak menggampangkan cust bgt lho maksudnya wkwk kyk yaelah mau complain gimana jg lo bakal ttp pake jasa kita kan ckckok then enjoy the moment until all of us move to posindo atau jasa antar convenience store and see how it gonna affect your business</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>kantorpos karangsatria menyediakan materai dan ingin bayar tagihan cicilan iuran bpjs pakai pos indonesia sedia posfin untuk melayani segala pembayaranpengiriman tetap jalan kilatkhusus ekonomi express</t>
+          <t>kegiatan sosialisasi aplikasi pospay dari pt pos indonesia cabang sumbawa di sma negeri sumbawa besar kamis november sma negeri sumbawa</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -7416,12 +7416,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>kapan pos indonesia akan membuka kembali layanan surat tercatat ke negara di eropa cc posindonesia</t>
+          <t>kehadiran pospay dari pt pos indonesia semakin meluas di tengah masyarakat indonesia jokowi</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>karena fokus di bisnis digital pos indonesia kerjanya meningkat lho pakaipospay</t>
+          <t>kehadiran pospay dari pt pos indonesia semakin meluas di tengah masyarakat indonesia per awal november ini setidaknya terdapat lebih dari juta masyarakat telah mengunduh aplikasi pospay di gawai masingmasing</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>keberadaan pt pos indonesia masih sangat penting untuk masyarakat terutama para pihak yang berperkara di pengadilan banyak berkas bukti yang harus dilegalisasi oleh pihak pt pos indonesia</t>
+          <t>kenapa aman karena aplikasisignal telah bekerjasama dengan pt pos indonesia sebagai jasa pengiriman terpercaya dong jadilebihaman jadilebihmudah bayarpajakpakaisignal samsatdigitalnasional</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -7476,12 +7476,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>kegiatan ini dibuka oleh kakancab asabri madiun hery nurdi dan dihadiri oleh perwakilan bank mantap bank bukopin bri bni bpd jatim btn bws dan pt pos indonesiakegiatanasabri asabrievents</t>
+          <t>kenapa ya pos indonesia jasa pengirimannya tidak sebesar swasta yg ada justru ekspedisi swasta skrng bertambah banyak dan mana gilaan kerjasama dengan marketplace</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>kejaksaan tinggi jawa barat kembali menetapkan dua orang tersang pada kasus mark up premi asuransi pt pos finansial indonesia yang merupakan anak perusahaan pt pos indonesia posfini</t>
+          <t>kirim barang dr jepang ke indo kira nyampe brp lama ya posindo</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>kelanjutan kerja sama pengiriman muatan pos laut memberikan nilai tambah bagi pelni dan pt pos indonesia</t>
+          <t>kirim dokumen via pos indonesia ykjbr hari sampe dgn itungan per kgnya lebih murce dibanding ekpedisi lain apa kalo kirim barang jg samakemajuan nih j apapun blm bisa ngejanjiin hari sampe soalnya selama ini</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7536,7 +7536,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>kelebihan pospay layanan keuangan digital dari pos indonesia</t>
+          <t>kirim paket mu keseluruh indonesiahemat cepat dan pasti sampaipengiriman via pos indonesia tinggal pilih mau express kilat ekonomi bisa lohbisa tracking resimu juga di website posbisa posindonesia kantor pos indonesia melayani sampai malam</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>kemarin juga gitu beli kopi di tokped kaget dong dapat jasa kirimnya pos indonesiaeh cepet banget nyampe nya</t>
+          <t>kiriman mau cepat hari pasti sampaipos express solusinyakiriman hemat antar daerah kilat dan ekonomi juga ada lohberkirim paket bentuk hubungan dan usaha anda bersama pos indonesiakantorpos karangsatria pelayanan jam mulai pagi sd malamposbisa posindonesia</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>kembangkan layanan setor tunai pt pos indonesia gandeng mnc</t>
+          <t>kok bisa ya di trackingan tertera paket sudah diterima padahal sampe aja belom gimna ini posindonesia mana isinya buat gue wisuda itu buat bikin vid udh deadline bsk kudu di upload</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>kembangkan tri dharma perguruan tinggi rektor uim pt pos indonesia regional ii jakarta tekenmou</t>
+          <t>kolaborasi pos indonesia dengan swap energi hadirkan motor listrik untuk kurir perempuan</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>keren banget kirim paket kbmjogja pake pos indonesia bisa sampe kurang dari jam padahal pake yang reguler heran aja kenapa seller olshop jarang yang nyediain opsi pengiriman pake pos indonesia padahal harganya x lebih murah daripada ekspedisi lain</t>
+          <t>kopnus merupakan salah satu koperasi terbesar di indonesia kini bertransformasi menjadi kopnuspos setelah melakukan kerjasama joint operation dengan pt pos indonesia salah satu bumn terbesar dan tersebar di seluruh provinsi di indonesia</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>kerjasama rumah zakat dengan pos indonesia persero diharapkan dapat meningkatkan potensi kedua belah pihak sehingga mampu mendorong dan menggelorakan kebangkitan minat zakat dan donasi kemanusiaan di dalam negeri maupun internasional pakaipospay</t>
+          <t>krisdayanti dibuatkan prangko oleh pos indonesia publik penasaran bagaimana caranya jogjaku kotagaul random</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>kesel sendiri nunggu paket dari pos indonesia tolong pak erickthohir kualitas pos dibenerin</t>
+          <t>layanan keuangan digital milik pt pos indonesia persero pospay tembus juta pelanggan</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -7676,7 +7676,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ketersebaran jaringan layanan pt pos indonesia persero memberikan kesempatan dan kemudahan seluasluasnya bagi masyarakat muslim indonesia untuk berdonasi pakaipospay</t>
+          <t>lowongan bumn pos indonesia untuk lulusan s cek di sini ya infoloker infolokerbumn</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7696,12 +7696,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ketersebaran jaringan layanan pt pos indonesia persero memberikan kesempatan dan kemudahan seluasluasnya bagi masyarakat muslim indonesia untuk berdonasi di rumah zakat pakaipospay</t>
+          <t>lowongan kerja bumn di pos indonesia untuk lulusan sma cek syaratnya</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -7716,12 +7716,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>kirim pakai pos indonesia lacak kiriman mu di kirim kemana saja keseluruh indonesia expresskilatjumboekonomiqdalamkotakantorpos karangsatria juga meneima pengiriman pembelian materai dan pembayaranpembayaranposindonesia posbisa</t>
+          <t>lowongan kerja bumn posisi staff di pt pos indonesia area kupang</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -7736,12 +7736,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>kirim pakai pos indonesia lacak kiriman mu di kirim kemana saja keseluruh indonesia expresskilatjumboekonomiqdalamkotapos indonesia siappkantorpos karangsatria juga meneima pengiriman pembelian materai dan pembayaranpembayaranposindonesia</t>
+          <t>lowongan kerja bumn pt pos indonesia persero terbaru bulan november oranger loketpersyaratan priawanitausia minimal tahunpendidikan minimal s semua jurusanberpenampilan menarik dan rapidan lain lain</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>kirim paket jaket seluruh indonesialewat pos indonesiaammor konveksimau bikin jaketsiap gasss ganjaket ammorkonveksi konveksijaket jaketkampus jaketppg jaketppgugj</t>
+          <t>lowongan kerja bumn pt pos indonesia</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -7776,12 +7776,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>kolaborasi mnc ecommerce dan pos indonesia semakin permudah konsumen sindonews bukanberitabiasa</t>
+          <t>lowongan kerja bumn pt pos indonesia</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>kolaborasi motionbanking dan pos indonesia genjot inklusikeuangan</t>
+          <t>lowongan kerja frontliner pt pos indonesia persero</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>layanan pengiriman pos indonesia memiliki harga bersaing dengan jasa pengiriman barang lainnya</t>
+          <t>lowongan kerja pos indonesiabatas lamaran november smasmkloker jobs lowongankerja</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7836,12 +7836,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>layanan pos indonesia siap pilihan express kilaat jumbo bahkan hari ini sampai q bisa dongkantorpos karangsatria juga siap menerima pengiriman paket dan dokumen pembelian materai serta pembayara tagihantagihan kamuposindoensia poskarangsatria</t>
+          <t>lowongan kerja pt pos indonesia persero cabang kotamobagu sulawesi utara</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7856,12 +7856,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>layanan pos indonesia siap pilihan express kilaat jumbo bahkan hari ini sampai q bisa dongkantorpos karangsatria juga siap menerima pengiriman paket dan dokumen pembelian materai serta pembayara tagihantagihan kamuposindoensia poskarangsatria</t>
+          <t>lowongan kerja pt pos indonesia persero update silahkan klik diuntuk teman anda agar bermanfaat silahkan like dan share suka dan bagikan informasi agar segera dilihat oleh yang lainnya</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>layanan pos indonesia siap pilihan express kilat jumbo bahkan hari ini sampai q bisa dongkantorpos karangsatria juga siap menerima pengiriman paket dan dokumen pembelian materai serta pembayara tagihantagihan kamuposindoensia poskarangsatria</t>
+          <t>lowongan kerja pt pos indonesia persero november</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>layanan pospay bahkan menjangkau kebutuhan para pekerja migran indonesia untuk melakukan proses transaksi keuangan dari luar negeri untuk kebutuhan transaksi yang ada di dalam negeri demikian dikutip dari rilis pers pos indonesia pakaipospay</t>
+          <t>lowongan kerja pt pos indonesia perseroposisi oranger mobilekualifikasi priawanita usia minimal tahun pendidikan minimal smasmk mampu bekerjasama timindividuselengkapnya di</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>loker pekanbaru pt pos indonesia september infopkulokerpekanbaru</t>
+          <t>lowongan kerja pt pos indonesia areasurabaya</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7936,12 +7936,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>lowongan kerja bumn pt pos indonesia persero oktober</t>
+          <t>lowongan kerja staf kantor pos indonesia persero bulan november open recruitment staffpersyaratan usia tahun tahunpendidikan minimal sarjana sdan lain laininfo selengkapnya</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>lowongan kerja bumn pt pos indonesia persero oktober</t>
+          <t>lowongan kerja staff pt pos indonesia persero</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7976,12 +7976,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>lowongan kerja bumn sma smk d s pt pos indonesia persero bulan oktober tahun</t>
+          <t>lowongan kerja staff pt pos indonesia persero november</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>lowongan kerja kantor pos indonesia persero tingkat sma sederajat bulan oktober petugas antaranpersyaratan pria wanitausia minimal tahun maksimal tahunpendidikan minimal sma sederajatdan lain lain lowongankerja loker</t>
+          <t>lumayan dapet potongan hari pahlawan ngirim surat melalui pos indonesia hehe makasi</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8016,12 +8016,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>lowongan kerja kantor pos indonesia</t>
+          <t>makasih pos posindonesia atas biaya handling dan sewa gudang ditambah ppn album gue penyet nih wkwkwkwkwkkwkwkwkwkwk</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -8036,7 +8036,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>lowongan kerja kantor pos indonesiaposisi lokasi kualifikasi dan melamar buka link gabung di channel telegram gratis</t>
+          <t>mari kembali ke pos indonesia</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8056,12 +8056,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>lowongan kerja kantor pos indonesiabatas lamaran september posisi lokasi kualifikasi dan panduan melamar buka link gabung di channel telegram gratis</t>
+          <t>masa iya pos indonesia dr dulu cuma ngirim surat doank</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>lowongan kerja kantor pt pos indonesia bulan oktober orangerpersyaratan pelamarpria wanitausia minimal tahunmemiliki motor dan sim cmemiliki hp android min os lolypopmemiliki skck yang masih berlakupelamaran pa</t>
+          <t>mau dapat penghasilan rutin gabung oranger mawar garapan pt pos indonesia dengan motor listrik smoot</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8096,12 +8096,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>lowongan kerja lampung oranger pt pos indonesiapersero</t>
+          <t>mesin motor untuk kampung nelayan diberikan oleh pt pos indonesia jayapura dan bank bni cabang jayapurabasmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8116,7 +8116,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>lowongan kerja pariaman pt pos indonesia sebagai tim pemasaran deadline oktober lokersumatera lowongankerja marketing pariaman lokerpariaman</t>
+          <t>mewgulf merchandise project shipping overseas pos indonesiayou can check shipping fee for your country here profit will be split equally for mews amp gulfs birthday project</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>lowongan kerja pt pos indonesia persero update silahkan klik diuntuk teman anda agar bermanfaat silahkan like dan share suka dan bagikan informasi agar segera dilihat oleh yang lainnya</t>
+          <t>min kantor pos buka jam berapa setelah istirahat sholat jumat posindonesia</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -8156,12 +8156,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>lowongan kerja pt pos indonesia persero update silahkan klik diuntuk teman anda agar bermanfaat silahkan like dan share suka dan bagikan informasi agar segera dilihat oleh yang lainnya</t>
+          <t>motor listrik untuk kurir wanita pos indonesia</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -8176,12 +8176,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>lowongan kerja pt pos indonesia persero bangkinang september</t>
+          <t>museum di indonesia yang memiliki kisah horror dilansir dari idn times museum pos indonesia di bandung ini berdiri sejak tahun kabarnya patung yang ada di bawah tanah hidup saat malam harigengpagimgtmgtradio</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -8196,12 +8196,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>lowongan kerja pt pos indonesia pekanbaru oktober</t>
+          <t>museum pos indonesia pun menjadi salah satu pilihan wisata bandung yang bisa menambah wawasan anda traveler seru</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -8216,12 +8216,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>lowongan kerja sma sederajat kantor pos indonesia bulan oktober spg mobilekriteria wanita priausia tahunpendidikan minimal sma atau sederajatberpenampilan menarik bersih dan rapidapat berkomunikasi lancarsya</t>
+          <t>napa deh posindonesia situsnya eroran</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -8236,12 +8236,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>lowongan pekerjaan sebagai oranger mobile di pt pos indonesia persero oktober</t>
+          <t>ngeliat background zoom pos indonesia go transform orf die ini dia lagi ngomong depan cermin apa begimana</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>lowongan pt pos indonesia persero bangkinang oktober</t>
+          <t>ni pos indonesia bikin film ya</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>mantap ini pos indonesiamenggandengnujeknusantara ojek dalam mengoptimalkanaplikasi pos aja pake pos aja mudah dalam mengirimkan barang kemana aja</t>
+          <t>open jasa admin packing go shopee udh freeong xtra dom solojatengrumah kt sm jnejntwahana sicepat pos indonesia tiki fee bisa dibicarakan bahan bisa dr aku atau kamu klo need lgs ketuk dm aku aja ya tag cari admin packing go</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -8296,12 +8296,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>mantap nih pospayofficial pt pos indonesia skrg punya pospay utk memperlancar pembayaran apapun dalam satu tempat pospay bisa sebagai layanan pembayaran tagihan dan angsuran secara inline di kantor pos maupun titik layanan lain di seluruh indonesia</t>
+          <t>open jasa season greeting sm artist co ktownopen slot sgprice bersih emstax pos indonesia packing shipping ke rumah masingwts fullset sg</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -8316,12 +8316,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>mantap nih pospayofficial pt pos indonesia skrg punya pospay utk memperlancar pembayaran apapun dalam satu tempat pospay bisa sebagai layanan pembayaran tagihan dan angsuran secara inline di kantor pos maupun titik layanan lain di seluruh indonesia</t>
+          <t>oranger mawar pt pos indonesia kurir wanita naik skuter listriksmoot</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>mantap nih pospayofficial pt pos indonesia skrg punya pospay utk memperlancar pembayaran apapun dalam satu tempat pospay bisa sebagai layanan pembayaran tagihan dan angsuran secara inline di kantor pos maupun titik layanan lain di seluruh indonesia</t>
+          <t>oranger mawar inovasi pos indonesia x smoot untuk wanita tangguh di masa pandemi by rss feeds</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8356,12 +8356,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>massa gabungan dari berbagai kampus di padang universitas bung hatta universitas negeri padang dan universitas andalas menyurati presiden melalui pos indonesia atas pemecatan pegawai kpk yang dirasa cacat prosedural</t>
+          <t>oranger mawar inovasi pos indonesia x smoot untuk wanita tangguh di masapandemi</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>mau emoney atau cash pos indonesia punya duanyayang tim emoney ada pospay yang memudahkan kalian bertransaksi mudah cuman lewat hape ajayang tim cash tentunya bisa datang langsung ke kantor posduanya cuma pt pos indonesia yang punyajadi mau transaksi pake yg mana</t>
+          <t>pahlawanku inspirasiku posjatengdiy haripahlawanpos bumnuntukindonesia posindonesia pahlawankuinspirasiku</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>mau hubungin orang pos indonesia lewat mana si anjrit</t>
+          <t>paket berisi dokumen npwp nyangkut di kantor posindonesia udah bolak balik ke kantor pos buat nanyain paketnya sampe sekarang belum saya terima kurir berbeda dari pihak pos udah dikontak namun gaada respon amp cuma di read tolong itu dokumen penting</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -8416,12 +8416,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>mau ngirim paket tapi mager download aplikasi psaja yak bisa pilih mau pake layanan apapun yang disuka sameday nextday reguler atau premium solusi untuk paketmu selamat ya pos indonesia bumn logistik terus bebenah makin keren aja</t>
+          <t>paket dari kampus barusan nyampe terus mas yg nganterinnya cerita sblmnya kampus ngirimnya pake jeene tapi kardusnya pada ancur semua akhirnya sama kampus ditarik lagi semua trus diganti pengirimannya pake pos indonesia</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>memang sih saya sdh telepon pos indonesia dan katanya sudah verified bahwa kewajiban saya sudah lunas dan saya bisa mengabaikan pemberitahuan dari pospaytapi saya mau penasaran saja kenapa bisa terjadi penagihan double seperti itu ya apakah ada error terimakasih sebelumnya</t>
+          <t>paten pospay pos indonesia mencapai juta pelanggan</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>menjelajahi era surat menyurat di museum pos indonesia infobdg</t>
+          <t>pc gp ansor lampung selatan bekerjasama dengan pt pos indonesia</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8476,12 +8476,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>merayakan kemenangan kecil untuk meraih kemenangan yg lebih besar the ultimate goal is pos indonesia juara</t>
+          <t>peluncuran mypos bebarengan dengan bergabungnya titik lokasi menjadi gerai mypos dari berbagai daerah di indonesia peluncuran mypos dipusatkan di kota surabaya menandai dimulainya terobosan terbaru pos indonesia ini</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -8496,12 +8496,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>mnc bank babp bekerjasama dgn pos indonesia kembangkan inovasi layanan setor dan tarik tunai tanpa kartu yang menjangkau daerah terpencil di seluruh indonesia hub mnc bank melayani semua</t>
+          <t>peluncuran mypos bebarengan dengan bergabungnya titik lokasi menjadi gerai mypos dari berbagai daerah di indonesia peluncuran mypos dipusatkan di kota surabaya menandai dimulainya terobosan terbaru pos indonesia ini</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -8516,7 +8516,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>mnc bank telah menandatangani perjanjian kerja sama dengan pt pos indonesia persero untuk mengembangkan layanan setor tunaitop up dan tarik tunaicash out di seluruh kantor pos dan aplikasi pospay milik pos indonesia</t>
+          <t>peluncuran mypos bebarengan dengan bergabungnya titik lokasi menjadi gerai mypos dari berbagai daerah di indonesia peluncuran mypos dipusatkan di kota surabaya menandai dimulainya terobosan terbaru pos indonesia ini</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>mnc bankpos indonesia kembangkan fitur setor tarik tunai tanpa kartu</t>
+          <t>peluncuran mypos bebarengan dengan bergabungnya titik lokasi menjadi gerai mypos dari berbagai daerah di indonesia peluncuran mypos dipusatkan di kota surabaya menandai dimulainya terobosan terbaru pos indonesia ini</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -8556,12 +8556,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>mnc ecommerce yakin pos indonesia bantu jangkau pengiriman ke daerah</t>
+          <t>penandatanganan kerjasama ekspedisi antara pt yakin pasifik tuna almer havis dengan pt pos indonesia</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -8576,12 +8576,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>mnc ecommerce yakin pos indonesia bantu jangkau pengiriman ke daerah</t>
+          <t>pengiriman via pos indonesia memang murah daripada dhl tapi jauh bener progres nya lama bener</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>mnc gandeng pos indonesia untuk perluasjangkauan</t>
+          <t>penipuan mengirimkan kuisioner melalui email dengan mengatasnamakan pos indonesia modus ini dibuat oleh pihak tidak bertanggung jawab yang bertujuan untuk mencuri data pospay kamu jika kamu mendapatkan email untuk mengisi data diri abaikan saja</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>motiobanking besutan pt bank mnc internasional tbk menandatangani perjanjian kerja sama dengan pt pos indonesia untuk layanan tarik tunaiselengkapnya motiobanking</t>
+          <t>pihak pos indonesia posindonesia akan mengembangkan gerai mypos untuk pasar segmen milenial</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>motionpay mnc ecommerce dengan pt pos indonesia persero untuk semakin dapat memberikan berbagai kemudahan dalam setiap transaksi digital di seluruh indonesiasave the daterabu september wiblive zoom webinar</t>
+          <t>pos indonesia bisa buat kirim paket album kan si cepat sama jn udah ga bisa dipercaya anjrit</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>mungkin harusnya gatau jg wkwkni pos indonesia mengeluarkan ematerai yg secara resmi bisa di dapatkan pada website pos indonesia punten urusan materai gini abdi teh suka meni riweuh</t>
+          <t>pos indonesia buka lowongan kerja bagi lulusan slta sikat bumn pos indonesia membuka lowongan kerja untuk lulusan slta berikut posisi dan persyaratannya loker lowongankerja</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>mungkinkah wa eror ini konspirasi biar pos indonesia rame orderan surat menyurat</t>
+          <t>pos indonesia ekspansi market milenial dengan mypos</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -8696,12 +8696,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>museum pos indonesia pun menjadi salah satu pilihan wisata bandung yang bisa menambah wawasan anda traveler seru</t>
+          <t>pos indonesia ekspansi market milenial dengan mypos</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>nah baru masuk ke pengirimanpengembalianada opsi dikirim ke rumah lewat pt pos indonesiagt tinggal isi nama dan alamat diujungnya ada ongkirnya juga yang nanti ke input pas mau bayar sim dikirim dari satgas yg temen isi makanya isi terdekat dari rumah</t>
+          <t>pos indonesia ekspansi market milenial dengan mypos</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8736,12 +8736,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>pak menteri erickthohir aja buktikan mudahnya pake aplikasi pos aja mosok kamu enggak buktikan aplikasi pos aja erick thohir apresiasipt pos indonesia</t>
+          <t>pos indonesia gandeng swap energi sediakan motor listrik untuk oranger mawar</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>pelni amp pos indonesia jalin kerja sama kirimanpos laut</t>
+          <t>pos indonesia hadirkan oranger mawar sebagai peluang perempuan menjadi mitra kurir via mnewsid</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>pelni amp pos indonesia jalin kerja sama kirimanpos laut</t>
+          <t>pos indonesia</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>pelni dan pos indonesia jalin kerja sama kiriman pos laut</t>
+          <t>pos indonesia itu kalo abis proses unbagging kemudian pengiriman emang lama ya jangkanya</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -8816,12 +8816,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>pelni dan pos indonesia jalin kerja sama kiriman pos laut</t>
+          <t>pos indonesia kaya tai</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>pelni dan pos indonesia jalin kerja sama pengangkutan kiriman pos laut</t>
+          <t>pos indonesia kembangkan gerai mypos untuk pasar milenial jokowi</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8856,12 +8856,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semua</t>
+          <t>pos indonesia kembangkan gerai mypos untuk pasar milenial jokowi</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -8876,12 +8876,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking</t>
+          <t>pos indonesia kembangkan gerai mypos untuk pasar milenial</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking motionpay mnc ecommerce dengan pt pos indonesia persero</t>
+          <t>pos indonesia kembangkan layanan terbaru mypos untuk bidik pasar milenial</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking motionpay mnc ecommerce dengan pt pos indonesia persero</t>
+          <t>pos indonesia luncurkan motor listrik oranger mawar untuk kurir wanita pt pos indonesia berkolaborasi dengan pt swap energy indonesia swap dan smoot motor indonesia meluncurkan motor listrik oranger mawar untuk kurir wanita</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8936,12 +8936,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking motionpay mnc ecommerce dengan pt pos indonesia persero</t>
+          <t>pos indonesia luncurkan pospay lirik mahasiswa dan pelaku umkm di desa</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8956,12 +8956,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking motionpay mnc ecommerce dengan pt pos indonesia persero untuk semakin dapat</t>
+          <t>pos indonesia mantap kirim paket ke jogja kemarin siang pake yg biasa siang ini udh sampe ke jogja broh</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasave the daterabu september wiblive zoom webinar motionbanking lifeinmotion mncbank motionpay mncfinancialservices posindonesia</t>
+          <t>pos indonesia meningkatkan pelayanan kepada pelanggan di tengah persaingan bisnis kurir yang semakin ketat ini dampaknya</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -8996,12 +8996,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasave the daterabu september wiblive zoom webinar motionbanking digitalbanking futurebankinghere lifeinmotion mncbank</t>
+          <t>pos indonesia meningkatkan pelayanan kepada pelanggan di tengah persaingan bisnis kurir yang semakin ketat ini dampaknya</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -9016,12 +9016,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiakemudahan transaksi digital untuk semuasave the daterabu september wiblive zoom webinar</t>
+          <t>pos indonesia presents smoot electric motorcycles to women couriers</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>penandatanganan kemitraan mnc group pos indonesiasaksikan prosesi penandatanganan kerja sama mnc group dan juga unitunit seperti motionbanking motionpay mnc ecommerce dengan pt pos indonesia perserolive zoom webinar</t>
+          <t>pos indonesia presents smoot electric motorcycles to women couriers</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>penandatanganan perjanjian kerja sama antara pt pos indonesia persero dan yayasan rumah zakat indonesia rumah zakat telah dilaksanakan pada tanggal september lalu pakaipospay</t>
+          <t>pos indonesia rilis oranger mawar peluang perempuan jadi mitra kurir</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9076,12 +9076,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>pengadaan barang dan jasa ptpos indonesia</t>
+          <t>pos indonesia rilis oranger mawar peluang perempuan jadi mitra kurir</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -9096,12 +9096,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>peringati hari pos sedunia pos indonesia beri diskon kilat khusus hingga persen</t>
+          <t>posindonesia bisa kirim ke beijing gak sih</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -9116,12 +9116,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>peringati hari pos sedunia pos indonesia beri diskon kilat khusus hingga persen</t>
+          <t>pospay merupakan platform atau channel digital berbasis rekening giro pos sehingga pelanggan dapat melakukan transaksi keuangan maupun layanan pos indonesia lainnya secara mandiri hanya melalui gadgetnya</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -9136,12 +9136,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>peringati postel pt pos indonesia bertransformasi ke arah digital</t>
+          <t>pospay pos indonesia tembus target juta pengguna jokowi</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>perluas jangkauan mnc ecommerce gandeng pos indonesia</t>
+          <t>pospay pos indonesia tembus target juta pengguna jokowi</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9176,7 +9176,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>perluas jangkauan motionbanking gandeng pos indonesia</t>
+          <t>pospay pos indonesia tembus target juta pengguna</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>perluas jaringan kurir pos indonesia gandeng santripreneur indonesia</t>
+          <t>pospay pembayaran digital terbaru dari pt pos indonesia</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>pesan erick thohir untuk pos bloc milik pos indonesia</t>
+          <t>post pencapaian silahkan post becandaan silahkan post politik silahkan pos indonesia silahkan</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -9236,7 +9236,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>peserta rakor diantaranya perwakilan bank mandiri taspen bri bank kb bukopin btpn bank neo commerce bni btn dan pt pos indonesia kegiatanasabri asabrievents</t>
+          <t>postcode of gam island kode pos indonesia freewestpapua</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos indonesia persero sebagai bumn tertua di tanah air melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>postcode of miwara subutruit risinsemus island kode pos indonesia freewestpapua</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos indonesia persero sebagai bumn tertua di tanah air melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>promosi wsbk bppd gandeng pt pos indonesia</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos indonesia persero sebagai bumn tertua di tanah air melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>pt inti persero berkolaborasi dengan pt pos indonesia persero melalui anak usahanya selengkapnya</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9316,12 +9316,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos indonesia persero sebagai bumn tertua di tanah air melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>pt inti persero dan pt pos indonesia persero bekerja sama strategis dengan mengkolaborasikan kedua anak perusahaannya untuk menggarap digital paymentberita selengkapnya dapat diakses di link</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos indonesia persero sebagai bumn tertua di tanah air melalui anak perusahaan pt pos properti indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>pt pos indonesia persero meluncurkan layanan terbaru mypos kamis layanan ini hadir untuk menggarap pangsa pasar bisnis kurir dan logistik bagi kalangan milenial jokowi</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9356,7 +9356,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>pos bloc jakarta merupakan proyek cipta ruang placemaking hasil kolaborasi antara pt pos properti indonesia dan pt pos indonesia sebagai bumn tertua di indonesia dengan pihak swasta pt ruang kreatif pos</t>
+          <t>pt pos indonesia persero menaikkan tarif pengantaran barang kiriman impor terhitung sejak september</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9376,12 +9376,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>pos indonesia</t>
+          <t>pt pos indonesia persero menaikkan tarif pengantaran barang kiriman impor terhitung sejak september</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>pos indonesia beri diskon kilat khusus hingga persen antara news bengkulu</t>
+          <t>pt pos indonesia persero menaikkan tarif pengantaran barang kiriman impor terhitung sejak september ini daftarnya</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>pos indonesia beri diskon kilat khusus hingga persen</t>
+          <t>pt pos indonesia posindonesia hadirkan motor listrik smoot untuk kurir perempuan via zonabikersid</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>pos indonesia beri diskon kilat khusus hingga persen</t>
+          <t>pt pos indonesia buka lowongan kerja untuk kurir disediakan motor listrik cukup modal sim c pt pos indonesia membuka lapangan pekerjaan bagi para wanita yang terkena dampak pandemi covid loker lowongankerja</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -9456,12 +9456,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>pos indonesia dorong inklusi keuangan di era revolusi digital</t>
+          <t>pt pos indonesia dan pt swap energi indonesia meluncurkan jasa pengiriman oranger mawar kurir jasa pengiriman oranger mawar ini menggunakan sepeda motor bertenaga listrik ekonomi adadikompas</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -9476,12 +9476,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>pos indonesia gandeng santripreneur indonesia perluas bisnis kurirlogistik antara news jawa barat</t>
+          <t>pt pos indonesia kembali membuka lowongan kerja pada bulan november</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -9496,12 +9496,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>pos indonesia gandeng santripreneur indonesia perluas jaringan kurir</t>
+          <t>pt pos indonesia kembali membuka lowongan kerja pada bulan november lowongan kerja ini dibuka hingga tanggal november via serambinews</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -9516,12 +9516,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>pos indonesia gandeng santripreneur indonesia perluas jaringan kurir</t>
+          <t>pt pos indonesia kembangkan gerai mypos untuk bidik pasar milenial antara news jawa barat</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>pos indonesia gandeng santripreneur indonesia perluas jaringan kurir</t>
+          <t>pt pos indonesia meluncurkan layanan terbaru mypos kamis layanan ini hadir untuk menggarap pangsa pasar bisnis kurir dan logistik bagi kalangan milenial cc jokowi</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -9556,12 +9556,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>pos indonesia juga gituuubagus kok</t>
+          <t>puji tuhan kodak ultra f nya nemu yang di indooo udah degan kalo harus berurusan sama pos indonesia hiksjersey t ku entah dimana</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -9576,12 +9576,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>pos indonesia meraih empat penghargaan dalam ajang top grc awards</t>
+          <t>rekrutmen pegawai bumn pt pos indonesia persero untuk seluruh jurusan update november</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -9596,12 +9596,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>pos indonesia optimistispospay capai target jutasubscriber di</t>
+          <t>sabtu minggu tetap buka kantorpos karangsatria buka jam mulai pagi sd malamkirim paket bayar tagihan dan kredit pembelian materai pos indonesia melayani semuanya posbisa posindonesia</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -9616,12 +9616,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>pos indonesia parah bat dah ngirim dari awal september sampe skrg ga sampe overload bgt apa gmn anjrit sicepat yg banyak aja bisa tuh gercep</t>
+          <t>sejauh ini belum ada kasus sama pos indonesia ya kayanya kalian harus beralih ke pos id aja deh</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -9636,12 +9636,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>pos indonesia raih empat penghargaan top grc awards</t>
+          <t>sejumlah bantuan jaring penahan sampah diberikan oleh pt pos indonesia untuk kampung nelayanbasmipandemidenganppkm</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -9656,12 +9656,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>pos indonesia sabet empat penghargaan ajang top grc awards</t>
+          <t>selamat sore garudacargo mhn maaf mau bertanya untuk ems yang dikirim menggunakan ga tanggal november apakah ada masalah kakkarena dari pihak pos indonesia belum menerima paketnya dari pihak maskapai statusnya stuck sejak november sampai skrg</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -9676,12 +9676,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>senam pagi posjatengdiy posindonesia bumnuntukindonesia aslisemarang senampagi semangatpagi instapic bumnhits milenialbumn</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -9696,7 +9696,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>siang posindonesia sy mau kirim paket ems di kantor pos jaktim sudah nunggu menit amp isi formulir macam tapi tdk bisa kirim krn jaringan lemot dan tidak bisa cek harga bagaimana bisa seluruh kantor pos down hny krn satu masalah bodoh sekali sistem ini mohon diperbaiki</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -9716,7 +9716,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>situs mengatasnamakan pospay milik pos indonesia bagibagi hadiah</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -9736,12 +9736,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>smk jasa pengirim surat selain pos indonesia apa ya kalo pos kan hari yang cepet ngga smpe segitu pake apa yatia</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>smoot kolaborasi dengan pos indonesia hadirkan motor listrik untuk oranger mawar</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>status w kurir shopee express btw dia dulu jadi kurir posindo makanya savenya pake nama posindo tp skrg dah pindah kerja di shopee express wkwk</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -9796,7 +9796,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>sudahlah pake jasa pos indonesia aja lagi yang suratsuratan dan dokumen kalau beli barang kpop terutama pc usahakan kirimnya ke dokumen bukan barang</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9816,12 +9816,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>tanyarl jadi aku kirim paket keluar negri tracked pake rln lalu baru nyadar kalo alamatnya salah kata pos indonesia bakal di balikin kalo gk nyampe ke penerima tp ada yg tau gk kira kira bakal makan berapa lama tia</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -9836,7 +9836,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>tarif pos indonesia mihil banget ya ternyata wkwkwkw</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>thank you posindonesia for safely deliveryed my package ini aku dan admin sengaja trial kirim pc pake kantor pos without bubble wrap sedikit pun cuman pc dimasukin ke toploader dan pake amplop aman banget perkiraan hari nyampe ternyata less than hours udah sampe</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>the another trouble langsung cpt telpon call center pos indonesia disuruh nyebutin no resi doang sih tadi plus diminta nyebutin alamat lengkap katanya datanya udh diupdate dan disuru tunggu x jam</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9896,12 +9896,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian luar biasa deh</t>
+          <t>tinggalkan jnt kita pindah pos indonesia</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -9916,12 +9916,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian luar biasa deh</t>
+          <t>tingkatkan kualitas pelayanan publik pengadilan agama situbondo bekerjasama dengan pt pos indonesia cabang situbondo untuk pengiriman produk pengadilan</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -9936,12 +9936,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>tolong posindo setiap kiriman ems itu besar bea cukainya diinfo ke penerima terlebih dahulu min notif sms dulu bgt biasanya tagihan masuk di email dan bisa ditransfer sekarang malah ditagih saat barang sampai di rumah cash gmn mau nyiapin datengnya aja ga bisa dikira</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -9956,12 +9956,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>udah tau kan kalo pt pos indonesia merupakan perusahaan jasa pengiriman yang telah lama berdiri di indonesiajadilebihaman jadilebihmudah bayarpajakpakaisignal samsatdigitalnasional</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -9976,12 +9976,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>udahlah pake pos indonesia aja</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -9996,12 +9996,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>udalaa klo kyk gini pke pos indonesia ajaaaga amanah bnget sih abang kurir</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>untuk itu pospay akan terus menjadi media pos indonesia untuk riding on digital wave</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>pos indonesia sekarang udah ga jadul nih udah gajaman lagi kirim surat skrg saatnya untuk transaksi jadi lebih mudah pakaipospay untuk pembayaran segala jenis transaksi kalian</t>
+          <t>westalah gaweo pos indonesia aeee btw emesku biyen kerjo ndek kono</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>pos indonesia targetkan pospay tembus juta subscriber</t>
+          <t>wts want to sell help rtjuyeon the boyz take all no shopee karena aku akan kirim pake paxel pos indonesia dg uangku sendiri jadi beneran masih gratong eventho gapake shopee yah dom depok jabar msh banyak yang belom dateng yaa boleh opshar yah ini aku jual murah</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10076,12 +10076,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>pos indonesia udah bisa kirim ke eropa lagi blm si</t>
+          <t>yang bisa cariin arlaporan tahunan atau laporan keuangan pt pos indonesia persero tahun dm aku dong aku sudah muak nyari seharian zonauang jokitugas zonaba</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>pos indonesia yang lain ada aja wkwkw pengalamanku ya</t>
+          <t>yg ada di jkt bisa mampir ke pos bloc tempat nongkrong jaman now revitalisasi museum filateli milik pt pos indonesia utk dijadikan revenue tambahan ditengah banyaknya aset bumn yg terbengkalaiyuuk maen ke pos bloc</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -10116,12 +10116,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>pos indonesia</t>
+          <t>yup transformasi digital memang identik dengan teknologi tujuan transformasi digital yaitu memberikan pelayanan yang lebih efisienposindonesiatransformasidigitarepost pos indonesia</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -10136,1315 +10136,15 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>pospay merupakan layanan pembayaran milik bumn pt pos indonesia pospay</t>
+          <t>selamat hari pahlawan haripahlawanpos posjatengdiy posindonesia bumnuntukindonesia bumnhits pegawaiposindonesia</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>postcode of mangufualar vat island kode pos indonesia freewestpapua</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>pt pelni bekerja sama dengan pt pos indonesia untuk mempermudah pengiriman barang dengan transportasi laut</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>pt pos indonesia persero memperkenalkan new platform layanan digital kurir dan jasa keuangan diantaranya adalah posaja pospay serta pos migran indonesia kepada menteri bumn erick thohir pakaipospay</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>pt pos indonesia persero telah bekerja sama dengan yayasan rumah zakat indonesia khususnya dalam melakukan setoran zakat infaksedekah donasi bencana donasi kemanusiaan kurban wakaf dan dana sosial keagamaan lainnya pakaipospay</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>pt pos indonesia persero terus berkomitmen untuk meningkatkan kualitas layanan kepada masyarakat dalam rangka memberikan kemudahan dan fasilitas layanan transaksi keuangan pakaipospay</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>pt pos indonesia beri tarif khusus pengiriman pempek</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>pt pos indonesia kembali membuka lowongan kerja minimal lulusan sma dengan batas waktu penerimaan lamaran sampai september</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>pt pos indonesia memberikan tarif khusus pengiriman barang untuk pelaku umkm kuliner pempek di palembangbaca selengkapnya klik posindonesia</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D494" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>pt pos indonesia menyebut kehadiran pospay menjawab derasnya perkembangan informasi komunikasi dan teknologi yang kian masif kumparannews</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>pt pos indonesia ngak ada akun twitter ya mau laporin kelakuan cs nya niii rekrutnya lewat jalur dalam kaliii</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>pt pos indonesia bank danamon mandiri taspen buka lowongan kerja oktober jakarta departemen tenaga kerja depnaker membuka bursa lowongan kerja pada lamannya bursa loker lowongankerja</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>punya kantor mnc ecommerce gandeng pos indonesia garap pengiriman barang mnc ecommerc memilih berkolaborasi dengan pt pos indonesia persero</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>putri kus wisnu wardani anggota wantimpres menerima kunjungan kehormatan dari direktur utama pt pos indonesia pada dan diberikan perhargaan pemakaian perangko rp dengan gambar wajah putri kus wisnu wardaniwantimpresposindonesia</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>rakor dibuka oleh kakancab asabri batam junaeskam dan dihadiri oleh perwakilan kancako mitra bayar yang terdapat di wilayah batam yaitu bank mantap bank bjb bank bukopin bri bni btn btpn dan pt pos indonesiakegiatanasabri asabrievents</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>rektor uim teken mou pt pos indonesia regional ii jakarta</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>resmikan pos bloc erick thohir puji transformasi pos indonesia</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>saksikan penandatanganan kerjasama mnc group dan unitunit x pt pos indonesia rabu september wiblive zoom webinar hub mncbank melayani semua</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D503" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>saksikan prosesi penandatanganan kerja sama mnc group dengan pt pos indonesia persero untuk semakin dapat memberikan berbagai kemudahan dalam setiap transaksi digital di indonesiasave the daterabu september wiblive zoom webinar</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>saksikan prosesi penandatanganan kerja sama mnc group dengan pt pos indonesia persero untuk semakin dapat memberikan berbagai kemudahan dalam setiap transaksi digital di indonesiasave the daterabu september wiblive zoom webinar</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>salah satu keunggulan pospay bisa diakses melalui kantor pos terdekatpengguna bisa mengakses aplikasi pospay ini sekalipun tidak punya smartphone pos indonesia memang ingin menyasar masyarakat menengah ke bawah yang blm punya akses perbankan</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>salam bina margatgl pengecatan halte di jl peta selatan depan kantor pos indonesia kec kalideres dikerjakan oleh pjlp seksi jalan jembatan dan kelengkapan jalan sdbm jakarta barataniesbaswedan dinasbinamarga binamargadki harinugroho dkijakarta</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>sasar masyarakat pelosok motionbanking milik grup mnc gandeng pos indonesia</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>sdf rek info poo ekspedisi sg paling murah opoantara jampt jne tiki si cepat ninja express atau pos indonesiamau kirim ke lampung soale rek ben hemat</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>sebagai bentuk kepedulian terhadap dunia pendidikan pt pos indonesia menyalurkan bantuan csr kepada yayasan pendidikan islam annur di desa pegadungan kecamatan tempuran kabupaten karawang jawa barat</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>sekarang itu udah banyak bisnis yang bertransformasi ke digital pos indonesia dengan pakaipospay misalnya yuk kita dukung yuk</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>sekilas tentang museum pos indonesia yang mengoleksi ribuanperangko</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>selamat hari bhakti pos amp telekomunikasi postel ke posindonesia semakin digital indonesiasemakin tangguh amp tumbuhhutbhaktipos haribhaktipos jabarsehatlahirbatin silihtulungan</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>selamat siang garudacargo mhn maaf mau bertanya untuk ems yang dikirim menggunakan ga tanggal oktober apakah ada masalah kakkarena dari pihak pos indonesia belum menerima paketnya dari pihak maskapai statusnya stuck sejak oktober sampai skrg</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>semangat di hari minggukantorpos karangsatria tetap melayani pembayaranpembayaran anda pengiriman paket dan dokumen serta pembelian materai dan selama stok tersedia kirim buat teman saudara tidak perlu khawatir bersama pos indonesia pasti sampai posindonesia</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>shipping with shopee international jne international pos indonesiaaccept paypal or local bank</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>strategi pos indonesia melawan jne jampt si cepat ovo gopay via youtube dukung pt pos indonesia</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>sumpah ini apaan deh skg pos indonesia kok ada handling feenya smpe k anjir pdhl biasa cuma k doang</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>surat kepada teman sahabat pena ataupun keluarga melalui jasa pos indonesiaselamat hari surat menyurat sedunia jangan lupa untuk mengirimkan surat kepada orangorang terdekatmuharisuratmenyuratseduniamedsihmdiparametrichmdiitsitssurabaya</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>tata kelola dan penerapan manajemen risiko bagian dari transformasi pos indonesia</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>tebar kasih melalui kiriman anda kepada orangorang terkasih keseluruh indonesia bersama pos indonesiakantorpos karangsatria siap melayani pengiriman paket dan dokumen anda keseluruh indonesiamelayani juga berbagai pembayaran tagihantagihan dan pembelian materai posindonesia</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>terdapat tiga mitra bayar yang aktif membayarkan pensiun di banda aceh dan hadir secara daring yaitu bank kb bukopin bank mantap dan pt pos indonesia perserokegiatan ini diadakan secara daring guna mencegah penyebaran covid kegiatanasabri asabrievents</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>teringat pulak tengok yt pasal perubahan yang dilakukan terhadap pos indonesia untuk bersaing dengan kurier lain</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>terus perluas jaringan pos indonesia gandeng santripreneur indonesia</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>the most committed grc leader untuk direktur utama pt pos indonesia faizal rochmad djoemadi</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>the most committed grc leader untuk direktur utama pt pos indonesia faizal rochmad djoemadi</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>tim milih pake pos indonesia selagi bisa</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>tolooongg cek pos indonesia ini linknya manaaaa mau kirim ke poland</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>transformasi digital dipacu oleh hampir semua sektor bumn salah satunya adalah pt pos indonesia apliaksi pospay dan posaja adalah besutan unggulannyagas pol kinerja bumn jokowierickthohir</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>twitternya pos indonesia apasi</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>udah pada tahu belum nih jika pos indonesia punya aplikasi pos ajapos aja adalah aplikasi yang dapat digunakan untuk para pebisnis online dan masyarakat umum untuk melakukan transaksi pemesanan dan pengiriman barang</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>untuk pilihan di pos indonesia ada ems estimasi hari pos cepat hari pos biasa hari perjalanan laut tarif nya pun berbeda beda untuk makanan lebih baik yg exp bulan keatas dan sudah bpom biar mempermudah pengecekan</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>wa error tandanya kita harus suratan kirim pakek pos indonesia biar sosweet ga si</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>wah mantap nih aplikasi pospay nya pospayofficial pt pos indonesiabanyak banget bonusnya yuk install dan aktifkan aplikasinya</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>wah mantap nih aplikasi pospay nya pospayofficial pt pos indonesiabanyak banget bonusnya yuk install dan aktifkan aplikasinya</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>wah mantap nih aplikasi pospay nya pospayofficial pt pos indonesiabanyak banget bonusnya yuk install dan aktifkan aplikasinya</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>wah mantap nih aplikasi pospay nya pospayofficial pt pos indonesiabanyak banget bonusnya yuk install dan aktifkan aplikasinya</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>wah menarik nih ewallet baru dari pos indonesia sayang agak repot buat transaksinya kyc nya juga ya agak susahmungkin karna masih baru moga makin maju nih app dan juga biaya topup digratisin napa njenglatar belakang gelap biar estetik muehehe</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>wahhh bumn pos indonesia kini punya ewallet bernama pospay lho sebagai generasi muda saatnya kita dukung pakaipospay</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>webinar meneladani rasulullah melalui zakatdalam rangka menyambut maulid nabi h dan meneladani rasullulah baznas bersama pt pos indonesia bekerjasama untuk memberikan literasi terkait fiqih zakat penghasilan yang juga dapat mengurangi pajak muzaki yang menunaikannya</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>womers dapat memilih alternatif echannel payment wom finance seperti alfamart indomaret gopay tokopedia shopee bukalapak pos indonesia linkaja danaatau dapat melalui atm seperti maybank bca dan bri</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>wts lightstick treasure hyunsuk pob packing biaya adminprice paypal shopee international jne international pos indonesia trackedlink shopeelink tokopedia</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>yuk ah udah pada install pospay belum jangan kudet ya ini aplikasi pt pos indonesia pospayofficial yang keren banget apalagi dapet bonus juga</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>yuk ah udah pada install pospay belum jangan kudet ya ini aplikasi pt pos indonesia pospayofficial yang keren banget apalagi dapet bonus juga</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>yuk ah udah pada install pospay belum jangan kudet ya ini aplikasi pt pos indonesia pospayofficial yang keren banget apalagi dapet bonus juga</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>yuk support bumnkembali kirim barang pakai jasa pos indonesia</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>zip code of nufaeswem island in kaimana regency west papua province kode pos indonesia freewestpapua</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>zip code of vuguaivararar island kode pos indonesia freewestpapua</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>zip code of wetin island in fakfak regency west papua province kode pos indonesia freewestpapua</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>neutral</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>kapankah anda terakhir kali menulis surat masihkah daftar riwayat hidup menulis hobby korespondensi atau filateli x sempat gak sempat segera dibalasgt adakah nostalgia lain bagi anda tentang layanan pos indonesia</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>checkout all nominal shopee split pay shopeepay later paypal freeongkir jakarta barat ww ship rln pos indonesia</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr">
         <is>
           <t>1</t>
         </is>
